--- a/Simulacion_MonteCarlo/escenarios_montecarlo/escenario_009.xlsx
+++ b/Simulacion_MonteCarlo/escenarios_montecarlo/escenario_009.xlsx
@@ -693,148 +693,148 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>15.56296570964862</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>32.23700005671633</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.73781191938958</v>
+        <v>27.49397137961915</v>
       </c>
       <c r="F2" t="n">
-        <v>4.342719274285862</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>25.64662790634708</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.178247802323753</v>
+        <v>16.76674027080344</v>
       </c>
       <c r="I2" t="n">
-        <v>28.97337380828872</v>
+        <v>91.6885504895516</v>
       </c>
       <c r="J2" t="n">
-        <v>93.66264393622895</v>
+        <v>34.39959618712697</v>
       </c>
       <c r="K2" t="n">
-        <v>85.60557949547338</v>
+        <v>31.17028194461437</v>
       </c>
       <c r="L2" t="n">
-        <v>108.6789645893183</v>
+        <v>125.4129932649689</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>106.6019983861063</v>
       </c>
       <c r="N2" t="n">
-        <v>173.035897360352</v>
+        <v>26.44590298018497</v>
       </c>
       <c r="O2" t="n">
-        <v>77.8685917960933</v>
+        <v>98.30085793965803</v>
       </c>
       <c r="P2" t="n">
-        <v>73.55034943606074</v>
+        <v>59.73642791305336</v>
       </c>
       <c r="Q2" t="n">
-        <v>132.8120172214393</v>
+        <v>106.050369478903</v>
       </c>
       <c r="R2" t="n">
-        <v>53.53805334130362</v>
+        <v>80.72874344614493</v>
       </c>
       <c r="S2" t="n">
-        <v>43.58861165174818</v>
+        <v>131.1446863492389</v>
       </c>
       <c r="T2" t="n">
-        <v>78.04499233318592</v>
+        <v>53.4162081940303</v>
       </c>
       <c r="U2" t="n">
-        <v>42.10655188554283</v>
+        <v>37.94982198175167</v>
       </c>
       <c r="V2" t="n">
-        <v>50.97952907492353</v>
+        <v>57.30095042111371</v>
       </c>
       <c r="W2" t="n">
-        <v>56.38289887503826</v>
+        <v>51.74713181248325</v>
       </c>
       <c r="X2" t="n">
-        <v>79.60217680059489</v>
+        <v>41.7975328740724</v>
       </c>
       <c r="Y2" t="n">
-        <v>66.65472417950866</v>
+        <v>41.1986437756478</v>
       </c>
       <c r="Z2" t="n">
-        <v>85.24273528742424</v>
+        <v>101.9806198161473</v>
       </c>
       <c r="AA2" t="n">
-        <v>124.670722312209</v>
+        <v>54.3818047355695</v>
       </c>
       <c r="AB2" t="n">
-        <v>53.97124148553709</v>
+        <v>71.04727446961502</v>
       </c>
       <c r="AC2" t="n">
-        <v>52.57820986488078</v>
+        <v>97.90476703634677</v>
       </c>
       <c r="AD2" t="n">
-        <v>80.5824153241619</v>
+        <v>141.445315412079</v>
       </c>
       <c r="AE2" t="n">
-        <v>92.58576096025213</v>
+        <v>78.97511218441417</v>
       </c>
       <c r="AF2" t="n">
-        <v>145.1644261081898</v>
+        <v>168.5091760178302</v>
       </c>
       <c r="AG2" t="n">
-        <v>167.9922140718514</v>
+        <v>52.36059674511694</v>
       </c>
       <c r="AH2" t="n">
-        <v>96.56849063782261</v>
+        <v>80.83837017492162</v>
       </c>
       <c r="AI2" t="n">
-        <v>99.11091436551906</v>
+        <v>90.41156316544597</v>
       </c>
       <c r="AJ2" t="n">
-        <v>164.4734619196215</v>
+        <v>104.009227846254</v>
       </c>
       <c r="AK2" t="n">
-        <v>59.08568945502459</v>
+        <v>98.90253929198748</v>
       </c>
       <c r="AL2" t="n">
-        <v>31.72571516850434</v>
+        <v>30.49775933267114</v>
       </c>
       <c r="AM2" t="n">
-        <v>45.62212652913072</v>
+        <v>125.5362043116316</v>
       </c>
       <c r="AN2" t="n">
-        <v>42.22473605331975</v>
+        <v>24.86967611749333</v>
       </c>
       <c r="AO2" t="n">
-        <v>25.46895168497834</v>
+        <v>37.30162791248443</v>
       </c>
       <c r="AP2" t="n">
-        <v>18.29511232702891</v>
+        <v>37.11701355622924</v>
       </c>
       <c r="AQ2" t="n">
-        <v>19.70661331242671</v>
+        <v>47.46364782762154</v>
       </c>
       <c r="AR2" t="n">
-        <v>15.76919037533098</v>
+        <v>22.4369847061388</v>
       </c>
       <c r="AS2" t="n">
-        <v>20.41190671335729</v>
+        <v>33.11315816790127</v>
       </c>
       <c r="AT2" t="n">
-        <v>10.51454154940541</v>
+        <v>8.3441386825045</v>
       </c>
       <c r="AU2" t="n">
-        <v>15.7016628894437</v>
+        <v>23.22590751427891</v>
       </c>
       <c r="AV2" t="n">
-        <v>21.86649178411488</v>
+        <v>13.69204883398715</v>
       </c>
       <c r="AW2" t="n">
-        <v>26.15635556322043</v>
+        <v>19.91379337437978</v>
       </c>
       <c r="AX2" t="n">
-        <v>19.95836555895782</v>
+        <v>12.14816053937325</v>
       </c>
     </row>
     <row r="3">
@@ -845,148 +845,148 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>3.027230531976992</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>4.552421070778456</v>
+        <v>4.285827152485094</v>
       </c>
       <c r="E3" t="n">
-        <v>3.948403229976919</v>
+        <v>1.406434814041506</v>
       </c>
       <c r="F3" t="n">
-        <v>4.240062307485192</v>
+        <v>4.696678789632974</v>
       </c>
       <c r="G3" t="n">
-        <v>1.487969812305582</v>
+        <v>3.023579329630448</v>
       </c>
       <c r="H3" t="n">
-        <v>2.154372300408273</v>
+        <v>1.164066244072741</v>
       </c>
       <c r="I3" t="n">
-        <v>4.494403861875432</v>
+        <v>4.29363436323699</v>
       </c>
       <c r="J3" t="n">
-        <v>4.162010979271658</v>
+        <v>0.6392597762958008</v>
       </c>
       <c r="K3" t="n">
-        <v>2.247191294372922</v>
+        <v>4.984515844777558</v>
       </c>
       <c r="L3" t="n">
-        <v>8.491251004940878</v>
+        <v>1.052177459338372</v>
       </c>
       <c r="M3" t="n">
-        <v>3.741489183132744</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>6.820783175979423</v>
+        <v>6.508950754870424</v>
       </c>
       <c r="O3" t="n">
-        <v>5.130904143611836</v>
+        <v>5.570469780519707</v>
       </c>
       <c r="P3" t="n">
-        <v>2.798991329949713</v>
+        <v>12.0827343664187</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.477532755536909</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>3.000898503507438</v>
+        <v>8.122148624482184</v>
       </c>
       <c r="S3" t="n">
-        <v>3.143896308881845</v>
+        <v>8.791807033702963</v>
       </c>
       <c r="T3" t="n">
-        <v>2.980529624711736</v>
+        <v>2.251134828319658</v>
       </c>
       <c r="U3" t="n">
-        <v>0.7147143384325645</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>2.852105985612339</v>
+        <v>1.187423342715251</v>
       </c>
       <c r="W3" t="n">
-        <v>2.961567538676667</v>
+        <v>5.006193971208624</v>
       </c>
       <c r="X3" t="n">
-        <v>6.598505782614897</v>
+        <v>2.237446056672012</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.637083363818208</v>
+        <v>6.63657283643513</v>
       </c>
       <c r="Z3" t="n">
-        <v>10.05602719976382</v>
+        <v>5.790849964067996</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.653776890763757</v>
+        <v>3.20280350660244</v>
       </c>
       <c r="AB3" t="n">
-        <v>5.386516194946827</v>
+        <v>2.962652318488546</v>
       </c>
       <c r="AC3" t="n">
-        <v>3.611827704052096</v>
+        <v>7.077817256105353</v>
       </c>
       <c r="AD3" t="n">
-        <v>3.913429611685743</v>
+        <v>4.912059243163589</v>
       </c>
       <c r="AE3" t="n">
-        <v>6.265860749735888</v>
+        <v>4.548785397031041</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.513080569805319</v>
+        <v>10.96451558431525</v>
       </c>
       <c r="AG3" t="n">
-        <v>3.274027060383094</v>
+        <v>7.508310886055989</v>
       </c>
       <c r="AH3" t="n">
-        <v>7.259244735863128</v>
+        <v>7.116118861301977</v>
       </c>
       <c r="AI3" t="n">
-        <v>7.92562592072646</v>
+        <v>6.312430435948817</v>
       </c>
       <c r="AJ3" t="n">
-        <v>2.89502232432742</v>
+        <v>2.953316227718498</v>
       </c>
       <c r="AK3" t="n">
-        <v>3.806186186896768</v>
+        <v>3.416852695537584</v>
       </c>
       <c r="AL3" t="n">
-        <v>5.11746394135668</v>
+        <v>3.887840765421293</v>
       </c>
       <c r="AM3" t="n">
-        <v>5.515674478500294</v>
+        <v>5.402554735209568</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.827723417825208</v>
+        <v>5.30816691483379</v>
       </c>
       <c r="AO3" t="n">
-        <v>8.03469206437453</v>
+        <v>5.935366252575743</v>
       </c>
       <c r="AP3" t="n">
-        <v>2.34195388685686</v>
+        <v>5.144283705494409</v>
       </c>
       <c r="AQ3" t="n">
-        <v>2.160390196131582</v>
+        <v>2.010636305681024</v>
       </c>
       <c r="AR3" t="n">
-        <v>3.351073958788251</v>
+        <v>4.205062957979983</v>
       </c>
       <c r="AS3" t="n">
-        <v>3.073095125850806</v>
+        <v>0.5069574260394542</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.897004519091734</v>
+        <v>2.435227070749754</v>
       </c>
       <c r="AU3" t="n">
-        <v>4.751025600169962</v>
+        <v>1.928656793336428</v>
       </c>
       <c r="AV3" t="n">
-        <v>7.117884750593491</v>
+        <v>1.99426358844388</v>
       </c>
       <c r="AW3" t="n">
-        <v>4.906983831360967</v>
+        <v>2.929352751863299</v>
       </c>
       <c r="AX3" t="n">
-        <v>2.499557380371382</v>
+        <v>2.531999956389644</v>
       </c>
     </row>
     <row r="4">
@@ -997,148 +997,148 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>12.93463738761197</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>26.27943460103092</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.239167001376194</v>
+        <v>6.524789940307808</v>
       </c>
       <c r="F4" t="n">
-        <v>14.24832360754835</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>40.56645075345769</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>19.58087940626161</v>
+        <v>13.34699377731291</v>
       </c>
       <c r="I4" t="n">
-        <v>109.0559925590346</v>
+        <v>20.58681644002468</v>
       </c>
       <c r="J4" t="n">
-        <v>215.7706054230271</v>
+        <v>64.17584384797112</v>
       </c>
       <c r="K4" t="n">
-        <v>16.99883287530362</v>
+        <v>56.54351742117289</v>
       </c>
       <c r="L4" t="n">
-        <v>5.764961138168759</v>
+        <v>93.16484225717065</v>
       </c>
       <c r="M4" t="n">
-        <v>69.95375173711771</v>
+        <v>108.1068751917164</v>
       </c>
       <c r="N4" t="n">
-        <v>116.94638764007</v>
+        <v>54.91112388033841</v>
       </c>
       <c r="O4" t="n">
-        <v>79.44170333741066</v>
+        <v>92.29206332036736</v>
       </c>
       <c r="P4" t="n">
-        <v>22.27217778574609</v>
+        <v>26.36095502396896</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.06917118561346</v>
+        <v>162.6066812497938</v>
       </c>
       <c r="R4" t="n">
-        <v>68.25639025764789</v>
+        <v>38.13148645170705</v>
       </c>
       <c r="S4" t="n">
-        <v>145.6305520367297</v>
+        <v>54.48082403882204</v>
       </c>
       <c r="T4" t="n">
-        <v>83.68505836215456</v>
+        <v>107.3413931293542</v>
       </c>
       <c r="U4" t="n">
-        <v>39.39497491751878</v>
+        <v>48.6437485130117</v>
       </c>
       <c r="V4" t="n">
-        <v>74.69903111107678</v>
+        <v>39.43504234070527</v>
       </c>
       <c r="W4" t="n">
-        <v>34.00405512767206</v>
+        <v>57.19384835017549</v>
       </c>
       <c r="X4" t="n">
-        <v>145.0694727551558</v>
+        <v>72.48568071980034</v>
       </c>
       <c r="Y4" t="n">
-        <v>52.137399362368</v>
+        <v>57.97707738053499</v>
       </c>
       <c r="Z4" t="n">
-        <v>65.1930245752896</v>
+        <v>118.2419764367346</v>
       </c>
       <c r="AA4" t="n">
-        <v>62.65400051344073</v>
+        <v>37.69580569263132</v>
       </c>
       <c r="AB4" t="n">
-        <v>57.20054809652878</v>
+        <v>29.27571377235905</v>
       </c>
       <c r="AC4" t="n">
-        <v>71.91621881579712</v>
+        <v>24.29323761439944</v>
       </c>
       <c r="AD4" t="n">
-        <v>86.69204459904429</v>
+        <v>71.25942853311511</v>
       </c>
       <c r="AE4" t="n">
-        <v>64.21272356070222</v>
+        <v>63.82087882837572</v>
       </c>
       <c r="AF4" t="n">
-        <v>53.23466136477994</v>
+        <v>54.39792940996526</v>
       </c>
       <c r="AG4" t="n">
-        <v>99.73568315314682</v>
+        <v>59.03070112054581</v>
       </c>
       <c r="AH4" t="n">
-        <v>26.34309023082253</v>
+        <v>71.62368308865518</v>
       </c>
       <c r="AI4" t="n">
-        <v>40.59514467077884</v>
+        <v>136.624763282073</v>
       </c>
       <c r="AJ4" t="n">
-        <v>42.65253666591308</v>
+        <v>102.9699559626496</v>
       </c>
       <c r="AK4" t="n">
-        <v>47.82486214014756</v>
+        <v>31.37678486044837</v>
       </c>
       <c r="AL4" t="n">
-        <v>38.21229775967428</v>
+        <v>14.75734042421224</v>
       </c>
       <c r="AM4" t="n">
-        <v>7.405429800666728</v>
+        <v>21.0138348717301</v>
       </c>
       <c r="AN4" t="n">
-        <v>32.34351913062891</v>
+        <v>29.73921958697944</v>
       </c>
       <c r="AO4" t="n">
-        <v>35.07484470060871</v>
+        <v>27.94541997712617</v>
       </c>
       <c r="AP4" t="n">
-        <v>14.93047469017572</v>
+        <v>16.47830854254456</v>
       </c>
       <c r="AQ4" t="n">
-        <v>26.66245831537394</v>
+        <v>21.16004474876829</v>
       </c>
       <c r="AR4" t="n">
-        <v>10.88090611163868</v>
+        <v>14.10427573552481</v>
       </c>
       <c r="AS4" t="n">
-        <v>12.28278902569561</v>
+        <v>25.80563562644933</v>
       </c>
       <c r="AT4" t="n">
-        <v>16.17483447059295</v>
+        <v>12.9065303524812</v>
       </c>
       <c r="AU4" t="n">
-        <v>12.13712601564571</v>
+        <v>8.551138686607111</v>
       </c>
       <c r="AV4" t="n">
-        <v>11.06049754269991</v>
+        <v>7.758397166395248</v>
       </c>
       <c r="AW4" t="n">
-        <v>16.63570590973281</v>
+        <v>7.519424708009326</v>
       </c>
       <c r="AX4" t="n">
-        <v>9.130487807510184</v>
+        <v>10.67170791155641</v>
       </c>
     </row>
     <row r="5">
@@ -1149,148 +1149,148 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>38.89293303212388</v>
+        <v>13.52005716889169</v>
       </c>
       <c r="D5" t="n">
-        <v>24.62880922724678</v>
+        <v>21.93205841600917</v>
       </c>
       <c r="E5" t="n">
-        <v>8.2255060914714</v>
+        <v>26.63629573371168</v>
       </c>
       <c r="F5" t="n">
-        <v>29.32707099087361</v>
+        <v>49.64197935674959</v>
       </c>
       <c r="G5" t="n">
-        <v>12.68381899764091</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>30.90016911136681</v>
+        <v>11.4504664157893</v>
       </c>
       <c r="I5" t="n">
-        <v>118.4679215717116</v>
+        <v>32.40904622609791</v>
       </c>
       <c r="J5" t="n">
-        <v>4.410346274039224</v>
+        <v>16.0062544227693</v>
       </c>
       <c r="K5" t="n">
-        <v>6.217113545409271</v>
+        <v>15.12127435961902</v>
       </c>
       <c r="L5" t="n">
-        <v>22.82699644859265</v>
+        <v>9.459278062702236</v>
       </c>
       <c r="M5" t="n">
-        <v>66.92637414434432</v>
+        <v>98.65932610271774</v>
       </c>
       <c r="N5" t="n">
-        <v>45.91101121351283</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>204.6749674781117</v>
+        <v>13.27227114750514</v>
       </c>
       <c r="P5" t="n">
-        <v>46.69905913877641</v>
+        <v>113.1021701017733</v>
       </c>
       <c r="Q5" t="n">
-        <v>59.73293530032828</v>
+        <v>37.51636240809769</v>
       </c>
       <c r="R5" t="n">
-        <v>201.9407664619426</v>
+        <v>212.9777638614619</v>
       </c>
       <c r="S5" t="n">
-        <v>34.79642522545441</v>
+        <v>16.44837175592129</v>
       </c>
       <c r="T5" t="n">
-        <v>28.52731455633452</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>15.68340323634943</v>
+        <v>261.5743437973387</v>
       </c>
       <c r="V5" t="n">
-        <v>21.41514019589942</v>
+        <v>22.97458069911351</v>
       </c>
       <c r="W5" t="n">
-        <v>24.27172837577248</v>
+        <v>20.72940423255137</v>
       </c>
       <c r="X5" t="n">
-        <v>18.43825213153372</v>
+        <v>71.33100440197559</v>
       </c>
       <c r="Y5" t="n">
-        <v>42.91719236358358</v>
+        <v>79.14698872591931</v>
       </c>
       <c r="Z5" t="n">
-        <v>18.77020910197257</v>
+        <v>26.93629722445286</v>
       </c>
       <c r="AA5" t="n">
-        <v>11.77053481117227</v>
+        <v>32.06233986656265</v>
       </c>
       <c r="AB5" t="n">
-        <v>46.36841139678455</v>
+        <v>89.59056007839531</v>
       </c>
       <c r="AC5" t="n">
-        <v>47.89359737292646</v>
+        <v>47.04880492477939</v>
       </c>
       <c r="AD5" t="n">
-        <v>72.09379015082774</v>
+        <v>47.63885207456654</v>
       </c>
       <c r="AE5" t="n">
-        <v>48.16781973502383</v>
+        <v>22.16365354679125</v>
       </c>
       <c r="AF5" t="n">
-        <v>18.50312694166523</v>
+        <v>18.29835548830762</v>
       </c>
       <c r="AG5" t="n">
-        <v>20.71917626538994</v>
+        <v>143.009867331651</v>
       </c>
       <c r="AH5" t="n">
-        <v>13.74915109877101</v>
+        <v>62.08039255498913</v>
       </c>
       <c r="AI5" t="n">
-        <v>1.077302947503176</v>
+        <v>33.03505762835924</v>
       </c>
       <c r="AJ5" t="n">
-        <v>37.61894971191271</v>
+        <v>23.08423331286974</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>47.09613294326265</v>
       </c>
       <c r="AL5" t="n">
-        <v>23.26162578335009</v>
+        <v>6.705599256270336</v>
       </c>
       <c r="AM5" t="n">
-        <v>13.29984108714378</v>
+        <v>25.31068955172488</v>
       </c>
       <c r="AN5" t="n">
-        <v>8.364234826395592</v>
+        <v>25.46273733998805</v>
       </c>
       <c r="AO5" t="n">
-        <v>51.40800110384667</v>
+        <v>15.30352824709007</v>
       </c>
       <c r="AP5" t="n">
-        <v>26.7100685369692</v>
+        <v>19.27885378715423</v>
       </c>
       <c r="AQ5" t="n">
-        <v>22.57059453125497</v>
+        <v>22.64799607399545</v>
       </c>
       <c r="AR5" t="n">
-        <v>13.33316248918048</v>
+        <v>23.90782791321388</v>
       </c>
       <c r="AS5" t="n">
-        <v>23.18605944352057</v>
+        <v>27.6349759058353</v>
       </c>
       <c r="AT5" t="n">
-        <v>23.74545003173421</v>
+        <v>24.53655923856081</v>
       </c>
       <c r="AU5" t="n">
-        <v>37.37446581657438</v>
+        <v>25.86964588577715</v>
       </c>
       <c r="AV5" t="n">
-        <v>22.62212879427935</v>
+        <v>13.5638001207484</v>
       </c>
       <c r="AW5" t="n">
-        <v>0</v>
+        <v>22.31668669567351</v>
       </c>
       <c r="AX5" t="n">
-        <v>23.48758583626209</v>
+        <v>28.72223209789492</v>
       </c>
     </row>
     <row r="6">
@@ -1301,148 +1301,148 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>3.67499010835626</v>
+        <v>2.412443450156254</v>
       </c>
       <c r="D6" t="n">
-        <v>10.67805346915419</v>
+        <v>2.194608980645615</v>
       </c>
       <c r="E6" t="n">
-        <v>2.720180317994566</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>2.518848999696504</v>
+        <v>0.07049381844237335</v>
       </c>
       <c r="G6" t="n">
-        <v>17.96191050947234</v>
+        <v>0.9403333106695557</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>7.982515406696626</v>
       </c>
       <c r="I6" t="n">
-        <v>50.84801559169878</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>86.30844506759132</v>
       </c>
       <c r="K6" t="n">
-        <v>8.714478591666481</v>
+        <v>8.90500254250429</v>
       </c>
       <c r="L6" t="n">
-        <v>40.82171954915893</v>
+        <v>55.97848570222914</v>
       </c>
       <c r="M6" t="n">
-        <v>21.22417448516726</v>
+        <v>14.03173273161397</v>
       </c>
       <c r="N6" t="n">
-        <v>19.33423733554874</v>
+        <v>39.32594387176168</v>
       </c>
       <c r="O6" t="n">
-        <v>33.90429151806934</v>
+        <v>30.14333713749321</v>
       </c>
       <c r="P6" t="n">
-        <v>11.53228591548721</v>
+        <v>25.11882871792109</v>
       </c>
       <c r="Q6" t="n">
-        <v>25.64755013136389</v>
+        <v>29.08903345064969</v>
       </c>
       <c r="R6" t="n">
-        <v>16.46145518578397</v>
+        <v>20.00623829180789</v>
       </c>
       <c r="S6" t="n">
-        <v>6.194173868579554</v>
+        <v>24.98010481007277</v>
       </c>
       <c r="T6" t="n">
-        <v>31.96272561278437</v>
+        <v>65.30554820372335</v>
       </c>
       <c r="U6" t="n">
-        <v>12.42741133929185</v>
+        <v>20.8401306209757</v>
       </c>
       <c r="V6" t="n">
-        <v>18.3001893770448</v>
+        <v>18.02193917846113</v>
       </c>
       <c r="W6" t="n">
-        <v>19.86208906487853</v>
+        <v>28.88511620403565</v>
       </c>
       <c r="X6" t="n">
-        <v>69.419216749388</v>
+        <v>16.49887612911293</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.00485813101235</v>
+        <v>26.34600780923065</v>
       </c>
       <c r="Z6" t="n">
-        <v>18.51355862051023</v>
+        <v>14.19364352612048</v>
       </c>
       <c r="AA6" t="n">
-        <v>17.83957091172335</v>
+        <v>27.17661910233858</v>
       </c>
       <c r="AB6" t="n">
-        <v>21.97630694086024</v>
+        <v>14.0317569567146</v>
       </c>
       <c r="AC6" t="n">
-        <v>21.16107521388863</v>
+        <v>22.89539228861497</v>
       </c>
       <c r="AD6" t="n">
-        <v>15.02563001634103</v>
+        <v>16.54393527357751</v>
       </c>
       <c r="AE6" t="n">
-        <v>11.84907142331524</v>
+        <v>13.53041914325568</v>
       </c>
       <c r="AF6" t="n">
-        <v>15.60309576126354</v>
+        <v>9.387264885175789</v>
       </c>
       <c r="AG6" t="n">
-        <v>4.171573063727261</v>
+        <v>7.696738459159084</v>
       </c>
       <c r="AH6" t="n">
-        <v>11.087332064127</v>
+        <v>9.861997701153012</v>
       </c>
       <c r="AI6" t="n">
-        <v>11.8444813621733</v>
+        <v>7.73735266433392</v>
       </c>
       <c r="AJ6" t="n">
-        <v>7.405726462955911</v>
+        <v>5.235191038760997</v>
       </c>
       <c r="AK6" t="n">
-        <v>6.684041360743247</v>
+        <v>4.58385251473379</v>
       </c>
       <c r="AL6" t="n">
-        <v>5.150065734211013</v>
+        <v>2.663568756275542</v>
       </c>
       <c r="AM6" t="n">
-        <v>2.908321963324143</v>
+        <v>10.64328329963627</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.909223587874829</v>
+        <v>2.420825385768917</v>
       </c>
       <c r="AO6" t="n">
-        <v>3.397221892464887</v>
+        <v>2.585301035295751</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.210546565497679</v>
+        <v>3.301762133262871</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0</v>
+        <v>4.706287481719495</v>
       </c>
       <c r="AR6" t="n">
-        <v>4.088807390245512</v>
+        <v>1.684948337534647</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.952780481493888</v>
+        <v>0</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.312827639826537</v>
+        <v>2.829554822777834</v>
       </c>
       <c r="AU6" t="n">
-        <v>1.875683158219837</v>
+        <v>0.04488698366493804</v>
       </c>
       <c r="AV6" t="n">
-        <v>1.133359576740578</v>
+        <v>4.286153327098084</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.000457355941456794</v>
+        <v>4.734464287940296</v>
       </c>
       <c r="AX6" t="n">
-        <v>3.73131477280046</v>
+        <v>2.963094783756637</v>
       </c>
     </row>
     <row r="7">
@@ -1453,148 +1453,148 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>12.94191983827062</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>13.14185562526466</v>
+        <v>6.267462579501858</v>
       </c>
       <c r="E7" t="n">
-        <v>35.38328074972691</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1.594374369009284</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>5.305453850669085</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1817223364619136</v>
+        <v>42.32064693760162</v>
       </c>
       <c r="I7" t="n">
-        <v>34.42063655608047</v>
+        <v>10.8017933010467</v>
       </c>
       <c r="J7" t="n">
-        <v>22.60159000552471</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>27.75710882593565</v>
+        <v>58.54909396917237</v>
       </c>
       <c r="L7" t="n">
-        <v>28.92935690970021</v>
+        <v>13.08970324802543</v>
       </c>
       <c r="M7" t="n">
-        <v>56.67996264089594</v>
+        <v>26.53313070604371</v>
       </c>
       <c r="N7" t="n">
-        <v>56.65768527459669</v>
+        <v>23.90382130014041</v>
       </c>
       <c r="O7" t="n">
-        <v>39.73099880102033</v>
+        <v>75.02932027543437</v>
       </c>
       <c r="P7" t="n">
-        <v>45.75780529920037</v>
+        <v>40.75199206398108</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.8446970086526</v>
+        <v>19.0047067245059</v>
       </c>
       <c r="R7" t="n">
-        <v>30.61186169932745</v>
+        <v>100.5694053992819</v>
       </c>
       <c r="S7" t="n">
-        <v>11.51645404612366</v>
+        <v>78.37259109595045</v>
       </c>
       <c r="T7" t="n">
-        <v>9.258473706649324</v>
+        <v>36.7310544841551</v>
       </c>
       <c r="U7" t="n">
-        <v>28.41829122559488</v>
+        <v>22.2636115304836</v>
       </c>
       <c r="V7" t="n">
-        <v>42.27628088056147</v>
+        <v>8.737132527162506</v>
       </c>
       <c r="W7" t="n">
-        <v>27.7661390805206</v>
+        <v>5.795357274396958</v>
       </c>
       <c r="X7" t="n">
-        <v>4.360276063424495</v>
+        <v>22.90700718703047</v>
       </c>
       <c r="Y7" t="n">
-        <v>12.34499482958317</v>
+        <v>9.019025975221625</v>
       </c>
       <c r="Z7" t="n">
-        <v>30.8469186699959</v>
+        <v>2.943417634980444</v>
       </c>
       <c r="AA7" t="n">
-        <v>9.539592624823346</v>
+        <v>0.249086947356151</v>
       </c>
       <c r="AB7" t="n">
-        <v>15.16259537988557</v>
+        <v>13.45119330338241</v>
       </c>
       <c r="AC7" t="n">
-        <v>5.632924840509109</v>
+        <v>10.4401412331302</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>16.13451378903963</v>
       </c>
       <c r="AE7" t="n">
-        <v>1.537982579951971</v>
+        <v>7.975984122091786</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.068007734093429</v>
+        <v>2.968686644741458</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>1.608141373498185</v>
       </c>
       <c r="AH7" t="n">
-        <v>4.577358202210287</v>
+        <v>1.265906754751023</v>
       </c>
       <c r="AI7" t="n">
-        <v>8.571547064730263</v>
+        <v>5.062117463182238</v>
       </c>
       <c r="AJ7" t="n">
-        <v>4.970636809977563</v>
+        <v>7.89845426838899</v>
       </c>
       <c r="AK7" t="n">
         <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.1964012518490739</v>
+        <v>3.739852730862231</v>
       </c>
       <c r="AM7" t="n">
-        <v>5.533991581091491</v>
+        <v>2.790800682505385</v>
       </c>
       <c r="AN7" t="n">
-        <v>13.71096127799032</v>
+        <v>6.257737219664045</v>
       </c>
       <c r="AO7" t="n">
-        <v>21.77013794183837</v>
+        <v>1.951709747381629</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.9866134431327889</v>
+        <v>3.894581320429407</v>
       </c>
       <c r="AQ7" t="n">
-        <v>5.222226021703181</v>
+        <v>3.186625621338686</v>
       </c>
       <c r="AR7" t="n">
-        <v>19.14964505674785</v>
+        <v>1.437226143728441</v>
       </c>
       <c r="AS7" t="n">
-        <v>11.31573652107474</v>
+        <v>1.714492781063494</v>
       </c>
       <c r="AT7" t="n">
-        <v>5.411616702029439</v>
+        <v>0.1834251294784854</v>
       </c>
       <c r="AU7" t="n">
-        <v>10.72707099547625</v>
+        <v>0</v>
       </c>
       <c r="AV7" t="n">
-        <v>9.146230544668041</v>
+        <v>1.690420635369303</v>
       </c>
       <c r="AW7" t="n">
-        <v>14.6157655200487</v>
+        <v>13.20582618288478</v>
       </c>
       <c r="AX7" t="n">
-        <v>13.65113371609561</v>
+        <v>2.974564684488604</v>
       </c>
     </row>
     <row r="8">
@@ -1605,148 +1605,148 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>10.09445071228125</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>85.55435141931184</v>
+        <v>19.66099551150493</v>
       </c>
       <c r="E8" t="n">
-        <v>13.20223881743069</v>
+        <v>13.27311667631519</v>
       </c>
       <c r="F8" t="n">
-        <v>85.92916980762139</v>
+        <v>0.9050498603540511</v>
       </c>
       <c r="G8" t="n">
-        <v>37.66058306071391</v>
+        <v>40.72354300492755</v>
       </c>
       <c r="H8" t="n">
-        <v>34.26608372483067</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>48.42935587374543</v>
+        <v>192.3148588022355</v>
       </c>
       <c r="J8" t="n">
-        <v>132.3851581489045</v>
+        <v>2.377258483534391</v>
       </c>
       <c r="K8" t="n">
-        <v>83.64267364403258</v>
+        <v>41.00864787531246</v>
       </c>
       <c r="L8" t="n">
-        <v>126.9560880506478</v>
+        <v>51.65740742468046</v>
       </c>
       <c r="M8" t="n">
-        <v>353.9169406574337</v>
+        <v>26.59781202124393</v>
       </c>
       <c r="N8" t="n">
-        <v>63.06972328686615</v>
+        <v>55.42810162584166</v>
       </c>
       <c r="O8" t="n">
-        <v>111.1076395989972</v>
+        <v>81.81434288093986</v>
       </c>
       <c r="P8" t="n">
-        <v>44.03624086172893</v>
+        <v>27.77611266115269</v>
       </c>
       <c r="Q8" t="n">
-        <v>200.8149788744921</v>
+        <v>57.1007081157738</v>
       </c>
       <c r="R8" t="n">
-        <v>42.12395435453069</v>
+        <v>7.75240480402727</v>
       </c>
       <c r="S8" t="n">
-        <v>51.02879313384427</v>
+        <v>151.6976701905804</v>
       </c>
       <c r="T8" t="n">
-        <v>55.38996938573978</v>
+        <v>86.52860294714793</v>
       </c>
       <c r="U8" t="n">
-        <v>274.1940290134481</v>
+        <v>54.34173246884152</v>
       </c>
       <c r="V8" t="n">
-        <v>27.72796358265317</v>
+        <v>15.27372826872921</v>
       </c>
       <c r="W8" t="n">
-        <v>135.8873033960089</v>
+        <v>47.13579874176305</v>
       </c>
       <c r="X8" t="n">
-        <v>66.13399442759732</v>
+        <v>85.67843777048105</v>
       </c>
       <c r="Y8" t="n">
-        <v>205.9760221315614</v>
+        <v>129.2336282477696</v>
       </c>
       <c r="Z8" t="n">
-        <v>44.5075105292908</v>
+        <v>42.93431015533605</v>
       </c>
       <c r="AA8" t="n">
-        <v>59.44231437926842</v>
+        <v>52.91791064249696</v>
       </c>
       <c r="AB8" t="n">
-        <v>41.62998026823372</v>
+        <v>110.3396942147581</v>
       </c>
       <c r="AC8" t="n">
-        <v>95.82012197784654</v>
+        <v>117.4200431855418</v>
       </c>
       <c r="AD8" t="n">
-        <v>147.0109059954459</v>
+        <v>164.7843739326622</v>
       </c>
       <c r="AE8" t="n">
-        <v>120.6338756466407</v>
+        <v>142.1272222709873</v>
       </c>
       <c r="AF8" t="n">
-        <v>163.7944553939747</v>
+        <v>80.90636587794332</v>
       </c>
       <c r="AG8" t="n">
-        <v>106.3286510766487</v>
+        <v>106.2777452734816</v>
       </c>
       <c r="AH8" t="n">
-        <v>16.85938055683355</v>
+        <v>171.3874069145101</v>
       </c>
       <c r="AI8" t="n">
-        <v>61.36967209354567</v>
+        <v>58.86268102410575</v>
       </c>
       <c r="AJ8" t="n">
-        <v>20.08858953493298</v>
+        <v>42.10550890054124</v>
       </c>
       <c r="AK8" t="n">
-        <v>33.58391007667315</v>
+        <v>40.99169612318639</v>
       </c>
       <c r="AL8" t="n">
-        <v>45.04171949363179</v>
+        <v>31.46560332084305</v>
       </c>
       <c r="AM8" t="n">
-        <v>24.52867363081856</v>
+        <v>30.87876381066641</v>
       </c>
       <c r="AN8" t="n">
-        <v>54.6041672436623</v>
+        <v>12.65469913297096</v>
       </c>
       <c r="AO8" t="n">
-        <v>54.70326856579808</v>
+        <v>26.32059179330636</v>
       </c>
       <c r="AP8" t="n">
-        <v>23.76631327050393</v>
+        <v>41.57828831220374</v>
       </c>
       <c r="AQ8" t="n">
-        <v>27.16881050032063</v>
+        <v>42.15599647320257</v>
       </c>
       <c r="AR8" t="n">
-        <v>11.31820721895195</v>
+        <v>26.82712304268565</v>
       </c>
       <c r="AS8" t="n">
-        <v>18.15335390067758</v>
+        <v>11.65965385035518</v>
       </c>
       <c r="AT8" t="n">
-        <v>17.6197609871747</v>
+        <v>23.98828996669631</v>
       </c>
       <c r="AU8" t="n">
-        <v>24.31891605365589</v>
+        <v>21.49938829510799</v>
       </c>
       <c r="AV8" t="n">
-        <v>23.44291637365433</v>
+        <v>16.17402627177711</v>
       </c>
       <c r="AW8" t="n">
-        <v>18.83229705659347</v>
+        <v>10.45652344573215</v>
       </c>
       <c r="AX8" t="n">
-        <v>24.00824864724293</v>
+        <v>16.82760058669257</v>
       </c>
     </row>
     <row r="9">
@@ -1757,148 +1757,148 @@
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>2.177939684067749</v>
+        <v>2.491482172282137</v>
       </c>
       <c r="D9" t="n">
-        <v>3.562691535601662</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>3.711032143665916</v>
+        <v>2.980092114994675</v>
       </c>
       <c r="F9" t="n">
-        <v>3.359030357662869</v>
+        <v>1.125199374824018</v>
       </c>
       <c r="G9" t="n">
-        <v>1.699124551944154</v>
+        <v>1.20805435486946</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5122134980413944</v>
+        <v>5.276743494114697</v>
       </c>
       <c r="I9" t="n">
-        <v>2.99822257494268</v>
+        <v>2.562081542479768</v>
       </c>
       <c r="J9" t="n">
-        <v>4.962869745007265</v>
+        <v>3.730215121053663</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>3.719588266378743</v>
       </c>
       <c r="L9" t="n">
-        <v>6.216624609963715</v>
+        <v>3.290904492654372</v>
       </c>
       <c r="M9" t="n">
-        <v>5.073544676483841</v>
+        <v>2.7429298377286</v>
       </c>
       <c r="N9" t="n">
-        <v>3.25611526326739</v>
+        <v>2.135170008158581</v>
       </c>
       <c r="O9" t="n">
-        <v>0.5880448163499616</v>
+        <v>1.402382262106465</v>
       </c>
       <c r="P9" t="n">
-        <v>2.344615263463826</v>
+        <v>2.404627165743675</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.048557081333565</v>
+        <v>1.64217274563535</v>
       </c>
       <c r="R9" t="n">
-        <v>3.758790580277004</v>
+        <v>4.342362308419222</v>
       </c>
       <c r="S9" t="n">
-        <v>9.476932796561792</v>
+        <v>4.837353293656868</v>
       </c>
       <c r="T9" t="n">
-        <v>4.492598260133489</v>
+        <v>6.610097046258846</v>
       </c>
       <c r="U9" t="n">
-        <v>2.485529360200552</v>
+        <v>3.435815477904432</v>
       </c>
       <c r="V9" t="n">
-        <v>6.168083690343585</v>
+        <v>1.920205803558263</v>
       </c>
       <c r="W9" t="n">
-        <v>2.678860438868433</v>
+        <v>3.01667767589963</v>
       </c>
       <c r="X9" t="n">
-        <v>2.892845768632483</v>
+        <v>7.971718625750702</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.713755492823984</v>
+        <v>5.269322617807961</v>
       </c>
       <c r="Z9" t="n">
-        <v>5.309322629732535</v>
+        <v>4.194157194126388</v>
       </c>
       <c r="AA9" t="n">
-        <v>4.98924779739569</v>
+        <v>6.985576809049408</v>
       </c>
       <c r="AB9" t="n">
-        <v>4.325582512131206</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.005003956581451</v>
+        <v>4.383419920071266</v>
       </c>
       <c r="AD9" t="n">
-        <v>5.327936138126815</v>
+        <v>7.106195496926794</v>
       </c>
       <c r="AE9" t="n">
-        <v>3.244077191543482</v>
+        <v>6.39089498682837</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.165182578763538</v>
+        <v>5.231911916522026</v>
       </c>
       <c r="AG9" t="n">
-        <v>11.24275916206515</v>
+        <v>3.628054303990996</v>
       </c>
       <c r="AH9" t="n">
-        <v>3.186341274704005</v>
+        <v>6.711170605077514</v>
       </c>
       <c r="AI9" t="n">
-        <v>7.053164076548676</v>
+        <v>6.312872721115568</v>
       </c>
       <c r="AJ9" t="n">
-        <v>4.278926068602358</v>
+        <v>6.757106821140649</v>
       </c>
       <c r="AK9" t="n">
-        <v>1.341781491586223</v>
+        <v>7.997045909274591</v>
       </c>
       <c r="AL9" t="n">
-        <v>4.366920916816349</v>
+        <v>2.283685020081451</v>
       </c>
       <c r="AM9" t="n">
-        <v>4.674949038181175</v>
+        <v>1.111767752731692</v>
       </c>
       <c r="AN9" t="n">
-        <v>2.75432387079365</v>
+        <v>3.044235375149987</v>
       </c>
       <c r="AO9" t="n">
-        <v>2.544167286482149</v>
+        <v>2.246626479022219</v>
       </c>
       <c r="AP9" t="n">
-        <v>3.940746885184565</v>
+        <v>2.433200137565075</v>
       </c>
       <c r="AQ9" t="n">
-        <v>4.374567601489613</v>
+        <v>3.494435831877683</v>
       </c>
       <c r="AR9" t="n">
-        <v>3.257838962545145</v>
+        <v>2.362625984729223</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.250423620986599</v>
+        <v>5.63141581172164</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.157555505165837</v>
+        <v>3.113935148640863</v>
       </c>
       <c r="AU9" t="n">
-        <v>1.688727951620534</v>
+        <v>0.459611165338606</v>
       </c>
       <c r="AV9" t="n">
-        <v>2.929823932670773</v>
+        <v>3.334348120985493</v>
       </c>
       <c r="AW9" t="n">
-        <v>1.484119499404433</v>
+        <v>5.250124215474575</v>
       </c>
       <c r="AX9" t="n">
-        <v>5.325772549824695</v>
+        <v>2.215929003610606</v>
       </c>
     </row>
     <row r="10">
@@ -1909,148 +1909,148 @@
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>15.89450716981789</v>
+        <v>8.834844980798742</v>
       </c>
       <c r="D10" t="n">
-        <v>5.620833678516817</v>
+        <v>13.01207940003346</v>
       </c>
       <c r="E10" t="n">
-        <v>14.53284417984955</v>
+        <v>6.358632380815863</v>
       </c>
       <c r="F10" t="n">
-        <v>7.73472918222658</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>27.95788454353163</v>
+        <v>34.56853398800255</v>
       </c>
       <c r="H10" t="n">
-        <v>111.6200511986462</v>
+        <v>13.26477591736398</v>
       </c>
       <c r="I10" t="n">
-        <v>5.637710097440085</v>
+        <v>24.81929317848208</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>32.33833938214048</v>
       </c>
       <c r="K10" t="n">
-        <v>16.40797091072264</v>
+        <v>33.71696605165219</v>
       </c>
       <c r="L10" t="n">
-        <v>29.24074468994471</v>
+        <v>52.06530135070262</v>
       </c>
       <c r="M10" t="n">
-        <v>291.0576160924343</v>
+        <v>114.7064562589599</v>
       </c>
       <c r="N10" t="n">
-        <v>69.2524244021925</v>
+        <v>199.8020906746488</v>
       </c>
       <c r="O10" t="n">
-        <v>63.01339796266105</v>
+        <v>101.8128776302315</v>
       </c>
       <c r="P10" t="n">
-        <v>81.98774107215316</v>
+        <v>57.06256475789122</v>
       </c>
       <c r="Q10" t="n">
-        <v>124.4580505803755</v>
+        <v>68.47156148375373</v>
       </c>
       <c r="R10" t="n">
-        <v>61.06517642132737</v>
+        <v>19.5087174440074</v>
       </c>
       <c r="S10" t="n">
-        <v>34.11786786790108</v>
+        <v>89.20137519970113</v>
       </c>
       <c r="T10" t="n">
-        <v>85.72750245903165</v>
+        <v>41.45403941096845</v>
       </c>
       <c r="U10" t="n">
-        <v>36.49488602344217</v>
+        <v>94.12891637818879</v>
       </c>
       <c r="V10" t="n">
-        <v>56.76237879560385</v>
+        <v>15.70800689446493</v>
       </c>
       <c r="W10" t="n">
-        <v>105.0432053075507</v>
+        <v>42.27546163921932</v>
       </c>
       <c r="X10" t="n">
-        <v>71.71845834953029</v>
+        <v>37.3807585908207</v>
       </c>
       <c r="Y10" t="n">
-        <v>36.60361012930716</v>
+        <v>91.95131467763613</v>
       </c>
       <c r="Z10" t="n">
-        <v>44.44035530177503</v>
+        <v>88.84188344180366</v>
       </c>
       <c r="AA10" t="n">
-        <v>47.31990331687999</v>
+        <v>63.96631160516387</v>
       </c>
       <c r="AB10" t="n">
-        <v>70.49352137098722</v>
+        <v>78.98445815038205</v>
       </c>
       <c r="AC10" t="n">
-        <v>61.58077752322175</v>
+        <v>77.13367362998423</v>
       </c>
       <c r="AD10" t="n">
-        <v>98.36678417553343</v>
+        <v>183.0796817032102</v>
       </c>
       <c r="AE10" t="n">
-        <v>70.62722131997138</v>
+        <v>66.0753552125843</v>
       </c>
       <c r="AF10" t="n">
-        <v>61.44307484954703</v>
+        <v>70.21746703424594</v>
       </c>
       <c r="AG10" t="n">
-        <v>49.04481655856381</v>
+        <v>52.96795440253995</v>
       </c>
       <c r="AH10" t="n">
-        <v>26.62065289812952</v>
+        <v>53.69326347567544</v>
       </c>
       <c r="AI10" t="n">
-        <v>94.61781773235072</v>
+        <v>20.29028043569435</v>
       </c>
       <c r="AJ10" t="n">
-        <v>68.52662700781704</v>
+        <v>23.34532595621134</v>
       </c>
       <c r="AK10" t="n">
-        <v>39.2159715718252</v>
+        <v>16.43520369032211</v>
       </c>
       <c r="AL10" t="n">
-        <v>56.18432470665952</v>
+        <v>9.711820727654649</v>
       </c>
       <c r="AM10" t="n">
-        <v>37.31395526656934</v>
+        <v>45.78190613079536</v>
       </c>
       <c r="AN10" t="n">
-        <v>33.10312274900335</v>
+        <v>11.83801306754718</v>
       </c>
       <c r="AO10" t="n">
-        <v>26.97368754518841</v>
+        <v>17.38375651774206</v>
       </c>
       <c r="AP10" t="n">
-        <v>17.41202733503703</v>
+        <v>27.77765050373872</v>
       </c>
       <c r="AQ10" t="n">
-        <v>31.84153442952453</v>
+        <v>35.92937365201379</v>
       </c>
       <c r="AR10" t="n">
-        <v>11.23685605325023</v>
+        <v>12.52392980003503</v>
       </c>
       <c r="AS10" t="n">
-        <v>17.69740301274945</v>
+        <v>23.75773966742485</v>
       </c>
       <c r="AT10" t="n">
-        <v>9.922015713882004</v>
+        <v>20.90503456636337</v>
       </c>
       <c r="AU10" t="n">
-        <v>14.1744414803043</v>
+        <v>61.43504383896911</v>
       </c>
       <c r="AV10" t="n">
-        <v>10.68377048256063</v>
+        <v>8.950209907652226</v>
       </c>
       <c r="AW10" t="n">
-        <v>27.48523851549179</v>
+        <v>10.44392316602848</v>
       </c>
       <c r="AX10" t="n">
-        <v>11.49989679039518</v>
+        <v>8.505011236848015</v>
       </c>
     </row>
     <row r="11">
@@ -2061,148 +2061,148 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>26.62170819153973</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>25.26616538452324</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>22.20286360390051</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>10.84992102086276</v>
+        <v>13.20049475477665</v>
       </c>
       <c r="G11" t="n">
-        <v>20.75954995739206</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>11.20467789178419</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>33.61914637204408</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>68.01085964942045</v>
+        <v>37.28107774015979</v>
       </c>
       <c r="K11" t="n">
-        <v>42.45437076015073</v>
+        <v>11.12240832256967</v>
       </c>
       <c r="L11" t="n">
-        <v>52.81264826130377</v>
+        <v>11.10604443441237</v>
       </c>
       <c r="M11" t="n">
-        <v>10.00943641125467</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>36.26159238750635</v>
+        <v>59.55139136693144</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>8.594112299771488</v>
       </c>
       <c r="P11" t="n">
-        <v>68.06721818994566</v>
+        <v>33.83163120519706</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>31.19362883151513</v>
       </c>
       <c r="R11" t="n">
-        <v>10.08065877306229</v>
+        <v>58.94033846327039</v>
       </c>
       <c r="S11" t="n">
-        <v>163.9362417704433</v>
+        <v>64.0234310483695</v>
       </c>
       <c r="T11" t="n">
-        <v>13.66323962682215</v>
+        <v>35.73733278558495</v>
       </c>
       <c r="U11" t="n">
-        <v>155.1670223937617</v>
+        <v>91.86894481180117</v>
       </c>
       <c r="V11" t="n">
-        <v>43.85728223625057</v>
+        <v>38.43278711215704</v>
       </c>
       <c r="W11" t="n">
-        <v>23.40504140456983</v>
+        <v>109.2665391820781</v>
       </c>
       <c r="X11" t="n">
-        <v>31.58258228237223</v>
+        <v>46.41507724805169</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.8318786783429253</v>
+        <v>54.96714108584471</v>
       </c>
       <c r="Z11" t="n">
-        <v>17.17013382909909</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>34.0534034280228</v>
+        <v>27.91814492850897</v>
       </c>
       <c r="AB11" t="n">
-        <v>26.43945879333198</v>
+        <v>10.92864880037563</v>
       </c>
       <c r="AC11" t="n">
-        <v>29.40725705271029</v>
+        <v>40.39644213550694</v>
       </c>
       <c r="AD11" t="n">
-        <v>23.9798265129058</v>
+        <v>88.92929099063619</v>
       </c>
       <c r="AE11" t="n">
-        <v>33.84337751107024</v>
+        <v>50.48705660450092</v>
       </c>
       <c r="AF11" t="n">
-        <v>13.27321864557631</v>
+        <v>22.65417565762697</v>
       </c>
       <c r="AG11" t="n">
-        <v>38.07366841441264</v>
+        <v>30.41871719199103</v>
       </c>
       <c r="AH11" t="n">
-        <v>24.79525072739654</v>
+        <v>9.475750605851921</v>
       </c>
       <c r="AI11" t="n">
-        <v>2.194993379445553</v>
+        <v>43.23851455277158</v>
       </c>
       <c r="AJ11" t="n">
-        <v>3.32389195120496</v>
+        <v>24.89846560030034</v>
       </c>
       <c r="AK11" t="n">
-        <v>22.75780380361862</v>
+        <v>15.13211295903602</v>
       </c>
       <c r="AL11" t="n">
-        <v>16.53870152013671</v>
+        <v>0</v>
       </c>
       <c r="AM11" t="n">
-        <v>20.72013049943908</v>
+        <v>33.9793660065593</v>
       </c>
       <c r="AN11" t="n">
-        <v>11.60687559799487</v>
+        <v>24.24760581367131</v>
       </c>
       <c r="AO11" t="n">
-        <v>32.69675265393604</v>
+        <v>15.9782563585848</v>
       </c>
       <c r="AP11" t="n">
-        <v>6.714632602711578</v>
+        <v>28.14312498233618</v>
       </c>
       <c r="AQ11" t="n">
-        <v>21.7980704746501</v>
+        <v>30.78342416264064</v>
       </c>
       <c r="AR11" t="n">
-        <v>26.42681530532132</v>
+        <v>14.57444917717051</v>
       </c>
       <c r="AS11" t="n">
-        <v>37.09616271066838</v>
+        <v>22.64807149430429</v>
       </c>
       <c r="AT11" t="n">
-        <v>5.27994526908582</v>
+        <v>35.74908549013351</v>
       </c>
       <c r="AU11" t="n">
-        <v>15.60235385753561</v>
+        <v>0.1403257648136035</v>
       </c>
       <c r="AV11" t="n">
-        <v>8.534853182443177</v>
+        <v>15.03508046482131</v>
       </c>
       <c r="AW11" t="n">
-        <v>27.55211863660561</v>
+        <v>10.38353866950115</v>
       </c>
       <c r="AX11" t="n">
-        <v>11.30322682550751</v>
+        <v>18.36814248578788</v>
       </c>
     </row>
     <row r="12">
@@ -2213,148 +2213,148 @@
         <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>7.974557473842517</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>11.18581468633776</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>5.755456134403131</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>8.302557879536664</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>2.22299840210189</v>
+        <v>8.878692530066221</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>61.39642990216741</v>
       </c>
       <c r="J12" t="n">
-        <v>42.03886605253022</v>
+        <v>66.03222626509834</v>
       </c>
       <c r="K12" t="n">
-        <v>36.4171456041594</v>
+        <v>62.27988652127518</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>48.38162067518676</v>
       </c>
       <c r="M12" t="n">
-        <v>44.34118461802819</v>
+        <v>67.67153261977515</v>
       </c>
       <c r="N12" t="n">
-        <v>50.998752080512</v>
+        <v>9.745384258910871</v>
       </c>
       <c r="O12" t="n">
-        <v>19.0129618131063</v>
+        <v>14.22212541344501</v>
       </c>
       <c r="P12" t="n">
-        <v>20.24117308996289</v>
+        <v>57.44627208547679</v>
       </c>
       <c r="Q12" t="n">
-        <v>10.52209093027258</v>
+        <v>31.755031245995</v>
       </c>
       <c r="R12" t="n">
-        <v>30.40846513415279</v>
+        <v>16.11130039926865</v>
       </c>
       <c r="S12" t="n">
-        <v>14.9251138727684</v>
+        <v>8.303859413467336</v>
       </c>
       <c r="T12" t="n">
-        <v>14.95956514856092</v>
+        <v>43.40162962611299</v>
       </c>
       <c r="U12" t="n">
-        <v>30.36942132411049</v>
+        <v>14.38426539126197</v>
       </c>
       <c r="V12" t="n">
-        <v>7.170416526811035</v>
+        <v>15.6055086930469</v>
       </c>
       <c r="W12" t="n">
-        <v>51.85366512750127</v>
+        <v>11.82314562164007</v>
       </c>
       <c r="X12" t="n">
-        <v>91.62352757871041</v>
+        <v>74.3001460882905</v>
       </c>
       <c r="Y12" t="n">
-        <v>16.55386226827263</v>
+        <v>83.30762212294979</v>
       </c>
       <c r="Z12" t="n">
-        <v>56.86802413870804</v>
+        <v>37.9222090576137</v>
       </c>
       <c r="AA12" t="n">
-        <v>13.43629433721502</v>
+        <v>17.96733832781245</v>
       </c>
       <c r="AB12" t="n">
-        <v>14.9645936095514</v>
+        <v>15.50489322834793</v>
       </c>
       <c r="AC12" t="n">
-        <v>29.25657493183722</v>
+        <v>14.00363681946041</v>
       </c>
       <c r="AD12" t="n">
-        <v>10.10373816902703</v>
+        <v>21.48648471762144</v>
       </c>
       <c r="AE12" t="n">
-        <v>14.47938827628793</v>
+        <v>25.07551659962467</v>
       </c>
       <c r="AF12" t="n">
-        <v>21.45326022833344</v>
+        <v>8.609736813573454</v>
       </c>
       <c r="AG12" t="n">
-        <v>11.25482479923749</v>
+        <v>23.35063019332965</v>
       </c>
       <c r="AH12" t="n">
-        <v>17.30526117059288</v>
+        <v>26.53177429275438</v>
       </c>
       <c r="AI12" t="n">
-        <v>11.07176442759748</v>
+        <v>15.12484112226762</v>
       </c>
       <c r="AJ12" t="n">
-        <v>43.41645060081883</v>
+        <v>17.24813430200034</v>
       </c>
       <c r="AK12" t="n">
-        <v>2.032259611085831</v>
+        <v>5.064291424577129</v>
       </c>
       <c r="AL12" t="n">
-        <v>26.77323588709458</v>
+        <v>1.939677842485672</v>
       </c>
       <c r="AM12" t="n">
-        <v>2.23165143393044</v>
+        <v>8.72294132902832</v>
       </c>
       <c r="AN12" t="n">
-        <v>4.62005548357652</v>
+        <v>12.93781740335103</v>
       </c>
       <c r="AO12" t="n">
-        <v>1.345459319003314</v>
+        <v>6.357192337072143</v>
       </c>
       <c r="AP12" t="n">
-        <v>3.59663642061597</v>
+        <v>4.517977717015761</v>
       </c>
       <c r="AQ12" t="n">
-        <v>3.185776682472031</v>
+        <v>9.54076112168068</v>
       </c>
       <c r="AR12" t="n">
-        <v>2.525705182110592</v>
+        <v>5.22229804858199</v>
       </c>
       <c r="AS12" t="n">
-        <v>3.007024078298108</v>
+        <v>5.389661924179058</v>
       </c>
       <c r="AT12" t="n">
-        <v>3.146371135725418</v>
+        <v>3.758844424882749</v>
       </c>
       <c r="AU12" t="n">
-        <v>1.609760898350944</v>
+        <v>5.997574011830332</v>
       </c>
       <c r="AV12" t="n">
-        <v>13.12506426721411</v>
+        <v>2.54493145545127</v>
       </c>
       <c r="AW12" t="n">
-        <v>1.763657352607006</v>
+        <v>1.598122232335065</v>
       </c>
       <c r="AX12" t="n">
-        <v>2.82881370607567</v>
+        <v>5.660426666403926</v>
       </c>
     </row>
     <row r="13">
@@ -2365,148 +2365,148 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>13.97352428262967</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>3.399271317769863</v>
+        <v>0.09287683913991085</v>
       </c>
       <c r="E13" t="n">
-        <v>12.88920831064076</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>22.36051350496891</v>
+        <v>35.59618316874118</v>
       </c>
       <c r="G13" t="n">
-        <v>53.14629199863823</v>
+        <v>7.338868246751971</v>
       </c>
       <c r="H13" t="n">
-        <v>10.85134961201214</v>
+        <v>6.690523465961604</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>5.570231112092857</v>
       </c>
       <c r="J13" t="n">
-        <v>6.221173361130445</v>
+        <v>35.66973753886438</v>
       </c>
       <c r="K13" t="n">
-        <v>33.41420033719315</v>
+        <v>0.4074143721362402</v>
       </c>
       <c r="L13" t="n">
-        <v>33.07686353036203</v>
+        <v>57.01796835622964</v>
       </c>
       <c r="M13" t="n">
-        <v>34.49266002504957</v>
+        <v>30.74237843461959</v>
       </c>
       <c r="N13" t="n">
-        <v>25.60655280687089</v>
+        <v>2.722913991302772</v>
       </c>
       <c r="O13" t="n">
-        <v>16.80204230103363</v>
+        <v>29.58621486706141</v>
       </c>
       <c r="P13" t="n">
-        <v>117.3424406785728</v>
+        <v>39.068308346393</v>
       </c>
       <c r="Q13" t="n">
-        <v>30.7131425417102</v>
+        <v>25.78808629307553</v>
       </c>
       <c r="R13" t="n">
-        <v>26.83475994225744</v>
+        <v>29.0786825017343</v>
       </c>
       <c r="S13" t="n">
-        <v>21.11266047340994</v>
+        <v>12.41123236099718</v>
       </c>
       <c r="T13" t="n">
-        <v>3.877858554986187</v>
+        <v>53.28240335551757</v>
       </c>
       <c r="U13" t="n">
-        <v>2.455036307299299</v>
+        <v>5.931599522161471</v>
       </c>
       <c r="V13" t="n">
-        <v>3.634517362815449</v>
+        <v>35.94951250535146</v>
       </c>
       <c r="W13" t="n">
-        <v>10.47213374851815</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>20.03786004742081</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>133.9288264413116</v>
+        <v>15.63482931767084</v>
       </c>
       <c r="Z13" t="n">
-        <v>10.88303811861566</v>
+        <v>19.04054881962228</v>
       </c>
       <c r="AA13" t="n">
-        <v>3.289174718476247</v>
+        <v>5.776739413316467</v>
       </c>
       <c r="AB13" t="n">
-        <v>14.44947763618003</v>
+        <v>26.32291776758116</v>
       </c>
       <c r="AC13" t="n">
-        <v>35.97742040078169</v>
+        <v>68.91821100653654</v>
       </c>
       <c r="AD13" t="n">
-        <v>6.679944762606006</v>
+        <v>51.02228271805409</v>
       </c>
       <c r="AE13" t="n">
-        <v>4.926240710459964</v>
+        <v>16.26361915105904</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.660067639389534</v>
+        <v>6.565685047535485</v>
       </c>
       <c r="AG13" t="n">
-        <v>4.145306091071617</v>
+        <v>9.811083758669179</v>
       </c>
       <c r="AH13" t="n">
-        <v>2.009185299742973</v>
+        <v>4.522745601693594</v>
       </c>
       <c r="AI13" t="n">
-        <v>2.06192118939062</v>
+        <v>3.094575688579494</v>
       </c>
       <c r="AJ13" t="n">
-        <v>5.099631533901351</v>
+        <v>9.000331091544208</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.2089463104055365</v>
+        <v>43.52896279843218</v>
       </c>
       <c r="AL13" t="n">
-        <v>10.69419864261</v>
+        <v>0</v>
       </c>
       <c r="AM13" t="n">
-        <v>2.33662602523955</v>
+        <v>16.13481603381625</v>
       </c>
       <c r="AN13" t="n">
-        <v>5.379745772729605</v>
+        <v>1.098660309015919</v>
       </c>
       <c r="AO13" t="n">
-        <v>15.35521508410323</v>
+        <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>0</v>
+        <v>12.19674632814547</v>
       </c>
       <c r="AQ13" t="n">
-        <v>16.88346996393357</v>
+        <v>4.591930608732575</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.3864905736767124</v>
+        <v>12.24427932202481</v>
       </c>
       <c r="AS13" t="n">
-        <v>9.840817511637272</v>
+        <v>2.896805172544787</v>
       </c>
       <c r="AT13" t="n">
-        <v>6.153078246865663</v>
+        <v>23.11635921352374</v>
       </c>
       <c r="AU13" t="n">
-        <v>2.046345174719468</v>
+        <v>0</v>
       </c>
       <c r="AV13" t="n">
-        <v>2.34516474356207</v>
+        <v>3.326344703157913</v>
       </c>
       <c r="AW13" t="n">
-        <v>9.802459958870344</v>
+        <v>3.736310461294442</v>
       </c>
       <c r="AX13" t="n">
-        <v>4.542918996381373</v>
+        <v>4.153877557543829</v>
       </c>
     </row>
     <row r="14">
@@ -2517,148 +2517,148 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>8.979681560399563</v>
+        <v>9.158131521846633</v>
       </c>
       <c r="D14" t="n">
-        <v>40.75183950058005</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>29.37673306864819</v>
+        <v>20.57603445690737</v>
       </c>
       <c r="F14" t="n">
-        <v>38.47357980846401</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>12.19914952249723</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>136.3358155880691</v>
+        <v>6.100820645476574</v>
       </c>
       <c r="I14" t="n">
-        <v>181.4514312107422</v>
+        <v>44.4473930229239</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0893180569143972</v>
+        <v>53.80651005242925</v>
       </c>
       <c r="K14" t="n">
-        <v>36.43102530758338</v>
+        <v>30.30940261465184</v>
       </c>
       <c r="L14" t="n">
-        <v>110.4292257585485</v>
+        <v>52.23903525368821</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>79.90500903610945</v>
       </c>
       <c r="N14" t="n">
-        <v>98.88696557076564</v>
+        <v>57.83544265026087</v>
       </c>
       <c r="O14" t="n">
-        <v>8.725205273343374</v>
+        <v>104.5133363913667</v>
       </c>
       <c r="P14" t="n">
-        <v>66.81832416957675</v>
+        <v>13.27201413921325</v>
       </c>
       <c r="Q14" t="n">
-        <v>64.82536006355691</v>
+        <v>5.355020109379474</v>
       </c>
       <c r="R14" t="n">
-        <v>35.04002078243953</v>
+        <v>26.70078757889495</v>
       </c>
       <c r="S14" t="n">
-        <v>144.1903954097816</v>
+        <v>40.67598412377586</v>
       </c>
       <c r="T14" t="n">
-        <v>72.50215168033121</v>
+        <v>6.839288991844793</v>
       </c>
       <c r="U14" t="n">
-        <v>52.43554017850209</v>
+        <v>50.30250702020714</v>
       </c>
       <c r="V14" t="n">
-        <v>23.86912131766964</v>
+        <v>46.93641674302237</v>
       </c>
       <c r="W14" t="n">
-        <v>50.8326780960021</v>
+        <v>61.18762639242128</v>
       </c>
       <c r="X14" t="n">
-        <v>48.54141163711541</v>
+        <v>83.33339572350279</v>
       </c>
       <c r="Y14" t="n">
-        <v>38.70320220714373</v>
+        <v>47.95197951482134</v>
       </c>
       <c r="Z14" t="n">
-        <v>101.4945620884742</v>
+        <v>59.78787362677737</v>
       </c>
       <c r="AA14" t="n">
-        <v>96.37811164946518</v>
+        <v>59.67896216906122</v>
       </c>
       <c r="AB14" t="n">
-        <v>33.12199166955438</v>
+        <v>51.28345935455019</v>
       </c>
       <c r="AC14" t="n">
-        <v>72.82405014842882</v>
+        <v>103.353781970149</v>
       </c>
       <c r="AD14" t="n">
-        <v>108.3900836275527</v>
+        <v>104.230850227072</v>
       </c>
       <c r="AE14" t="n">
-        <v>105.7530008655375</v>
+        <v>113.8554534076651</v>
       </c>
       <c r="AF14" t="n">
-        <v>71.5540280147866</v>
+        <v>94.41941898068737</v>
       </c>
       <c r="AG14" t="n">
-        <v>75.29231393919117</v>
+        <v>194.4178868042648</v>
       </c>
       <c r="AH14" t="n">
-        <v>79.74782870255665</v>
+        <v>141.3149184089673</v>
       </c>
       <c r="AI14" t="n">
-        <v>98.36095717072253</v>
+        <v>185.1640264087518</v>
       </c>
       <c r="AJ14" t="n">
-        <v>52.94338338949021</v>
+        <v>68.03146279459891</v>
       </c>
       <c r="AK14" t="n">
-        <v>101.6742623349242</v>
+        <v>86.23193349598128</v>
       </c>
       <c r="AL14" t="n">
-        <v>88.23732060271296</v>
+        <v>30.06861802368745</v>
       </c>
       <c r="AM14" t="n">
-        <v>93.19031709671201</v>
+        <v>42.75877751162128</v>
       </c>
       <c r="AN14" t="n">
-        <v>31.70439252916043</v>
+        <v>41.5340398117882</v>
       </c>
       <c r="AO14" t="n">
-        <v>37.71125707056119</v>
+        <v>33.2641751299025</v>
       </c>
       <c r="AP14" t="n">
-        <v>12.52961972045605</v>
+        <v>20.70575545628852</v>
       </c>
       <c r="AQ14" t="n">
-        <v>26.16510078152093</v>
+        <v>23.60868371621609</v>
       </c>
       <c r="AR14" t="n">
-        <v>28.30013740785289</v>
+        <v>22.42159646023471</v>
       </c>
       <c r="AS14" t="n">
-        <v>16.37624869673182</v>
+        <v>19.76176477763812</v>
       </c>
       <c r="AT14" t="n">
-        <v>23.59484929685426</v>
+        <v>13.43135869706435</v>
       </c>
       <c r="AU14" t="n">
-        <v>25.25569038317145</v>
+        <v>32.78926730455843</v>
       </c>
       <c r="AV14" t="n">
-        <v>28.52769956138391</v>
+        <v>23.37950409626959</v>
       </c>
       <c r="AW14" t="n">
-        <v>27.21491568003487</v>
+        <v>7.234182598847398</v>
       </c>
       <c r="AX14" t="n">
-        <v>23.23084057740505</v>
+        <v>16.51761807240194</v>
       </c>
     </row>
     <row r="15">
@@ -2669,148 +2669,148 @@
         <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>11.67763871306182</v>
       </c>
       <c r="D15" t="n">
-        <v>3.620617256837821</v>
+        <v>2.344427333023397</v>
       </c>
       <c r="E15" t="n">
-        <v>2.898769816338649</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>2.882389078642691</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>4.003677247365451</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.5153938050183404</v>
+        <v>6.346938236552084</v>
       </c>
       <c r="I15" t="n">
-        <v>5.975907654092775</v>
+        <v>3.946043571658406</v>
       </c>
       <c r="J15" t="n">
-        <v>2.674860332123709</v>
+        <v>3.988898614735029</v>
       </c>
       <c r="K15" t="n">
-        <v>0.3359376274961595</v>
+        <v>0.7021302355071082</v>
       </c>
       <c r="L15" t="n">
-        <v>1.826788410944209</v>
+        <v>7.656706262637876</v>
       </c>
       <c r="M15" t="n">
-        <v>6.169723039320072</v>
+        <v>5.305157455526468</v>
       </c>
       <c r="N15" t="n">
-        <v>1.507219241866438</v>
+        <v>5.447441531747241</v>
       </c>
       <c r="O15" t="n">
-        <v>1.790178351938684</v>
+        <v>3.656871063294783</v>
       </c>
       <c r="P15" t="n">
-        <v>6.176735745796722</v>
+        <v>7.590201644963942</v>
       </c>
       <c r="Q15" t="n">
-        <v>18.10395815240296</v>
+        <v>2.079078917765925</v>
       </c>
       <c r="R15" t="n">
-        <v>5.76452717258</v>
+        <v>5.053807390550569</v>
       </c>
       <c r="S15" t="n">
-        <v>8.46063370061181</v>
+        <v>6.920664177147719</v>
       </c>
       <c r="T15" t="n">
-        <v>0.3402247357217287</v>
+        <v>2.872156513258473</v>
       </c>
       <c r="U15" t="n">
-        <v>4.296012117118584</v>
+        <v>2.592099423519723</v>
       </c>
       <c r="V15" t="n">
-        <v>7.211443677418506</v>
+        <v>6.480211970257479</v>
       </c>
       <c r="W15" t="n">
-        <v>3.321732851460792</v>
+        <v>6.060437938984958</v>
       </c>
       <c r="X15" t="n">
-        <v>1.698757093443154</v>
+        <v>4.22143126484977</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.625145122085264</v>
+        <v>3.752839521328282</v>
       </c>
       <c r="Z15" t="n">
-        <v>4.664114857696555</v>
+        <v>6.123844514139376</v>
       </c>
       <c r="AA15" t="n">
-        <v>3.831242868334882</v>
+        <v>4.655148426774927</v>
       </c>
       <c r="AB15" t="n">
-        <v>5.009762022765446</v>
+        <v>4.655885033346766</v>
       </c>
       <c r="AC15" t="n">
-        <v>6.379466131759098</v>
+        <v>6.175814933353704</v>
       </c>
       <c r="AD15" t="n">
-        <v>3.798795563104544</v>
+        <v>5.421257812194908</v>
       </c>
       <c r="AE15" t="n">
-        <v>7.33249534152343</v>
+        <v>8.281337022035526</v>
       </c>
       <c r="AF15" t="n">
-        <v>6.035528298973054</v>
+        <v>5.488944884282111</v>
       </c>
       <c r="AG15" t="n">
-        <v>10.71792589454585</v>
+        <v>6.387987902368151</v>
       </c>
       <c r="AH15" t="n">
-        <v>2.169179931831266</v>
+        <v>7.302429125743863</v>
       </c>
       <c r="AI15" t="n">
-        <v>6.373763635356049</v>
+        <v>7.601268262830193</v>
       </c>
       <c r="AJ15" t="n">
-        <v>8.645004485282213</v>
+        <v>5.732732954138622</v>
       </c>
       <c r="AK15" t="n">
-        <v>3.993622518977043</v>
+        <v>3.168286290527459</v>
       </c>
       <c r="AL15" t="n">
-        <v>6.720677246195808</v>
+        <v>2.13592883257848</v>
       </c>
       <c r="AM15" t="n">
-        <v>6.752507801922095</v>
+        <v>2.03037335769802</v>
       </c>
       <c r="AN15" t="n">
-        <v>4.161144258293958</v>
+        <v>3.646370408715835</v>
       </c>
       <c r="AO15" t="n">
-        <v>2.435738840062939</v>
+        <v>4.0463546885557</v>
       </c>
       <c r="AP15" t="n">
-        <v>6.544941662566676</v>
+        <v>3.411922453385294</v>
       </c>
       <c r="AQ15" t="n">
-        <v>4.686701832877017</v>
+        <v>3.98984278118566</v>
       </c>
       <c r="AR15" t="n">
-        <v>5.083159946342595</v>
+        <v>4.631272582032536</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.243352855388655</v>
+        <v>3.445553741158274</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.229804354433663</v>
+        <v>3.840113194783402</v>
       </c>
       <c r="AU15" t="n">
-        <v>8.43520084236685</v>
+        <v>1.254838353234088</v>
       </c>
       <c r="AV15" t="n">
-        <v>3.184356284115098</v>
+        <v>0.5811408724952157</v>
       </c>
       <c r="AW15" t="n">
-        <v>4.446672896293114</v>
+        <v>3.0240770580633</v>
       </c>
       <c r="AX15" t="n">
-        <v>3.294225862394636</v>
+        <v>3.059957316054632</v>
       </c>
     </row>
     <row r="16">
@@ -2821,148 +2821,148 @@
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>13.90377040771087</v>
+        <v>5.840592929068151</v>
       </c>
       <c r="D16" t="n">
-        <v>14.74808676334305</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>7.675785143889735</v>
+        <v>18.80421428307951</v>
       </c>
       <c r="F16" t="n">
-        <v>11.48654913910894</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>18.40312170594915</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>73.09218645290399</v>
+        <v>144.0456772487276</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>27.66219136810547</v>
       </c>
       <c r="J16" t="n">
-        <v>170.533872905159</v>
+        <v>36.28363242641154</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>38.97058439227767</v>
       </c>
       <c r="L16" t="n">
-        <v>19.00987786123098</v>
+        <v>5.983147423091417</v>
       </c>
       <c r="M16" t="n">
-        <v>20.806857509042</v>
+        <v>265.3374235452916</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>81.61497494098211</v>
       </c>
       <c r="O16" t="n">
-        <v>248.4544790625168</v>
+        <v>22.7423753782789</v>
       </c>
       <c r="P16" t="n">
-        <v>17.69451201755269</v>
+        <v>73.04699308367253</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>0.4400841090978709</v>
       </c>
       <c r="R16" t="n">
-        <v>85.0732113910644</v>
+        <v>55.57570514002605</v>
       </c>
       <c r="S16" t="n">
-        <v>42.17202784853902</v>
+        <v>37.8619215491933</v>
       </c>
       <c r="T16" t="n">
-        <v>120.0644004086067</v>
+        <v>63.06675476722928</v>
       </c>
       <c r="U16" t="n">
-        <v>13.97463780538818</v>
+        <v>32.54150589370307</v>
       </c>
       <c r="V16" t="n">
-        <v>49.65509002931787</v>
+        <v>58.86370486050693</v>
       </c>
       <c r="W16" t="n">
-        <v>48.77614686322925</v>
+        <v>88.68476421740344</v>
       </c>
       <c r="X16" t="n">
-        <v>52.80243883803676</v>
+        <v>169.1085705212204</v>
       </c>
       <c r="Y16" t="n">
-        <v>69.95020117233898</v>
+        <v>74.051012942246</v>
       </c>
       <c r="Z16" t="n">
-        <v>120.1946355821388</v>
+        <v>63.35746715400352</v>
       </c>
       <c r="AA16" t="n">
-        <v>91.80582722636601</v>
+        <v>71.68267675853846</v>
       </c>
       <c r="AB16" t="n">
-        <v>68.20222801627125</v>
+        <v>139.9072968677278</v>
       </c>
       <c r="AC16" t="n">
-        <v>107.2353768739286</v>
+        <v>75.21389956995854</v>
       </c>
       <c r="AD16" t="n">
-        <v>210.689069171999</v>
+        <v>72.22707538193055</v>
       </c>
       <c r="AE16" t="n">
-        <v>124.1954128894914</v>
+        <v>46.69965945263653</v>
       </c>
       <c r="AF16" t="n">
-        <v>24.7765403998595</v>
+        <v>87.22368140880749</v>
       </c>
       <c r="AG16" t="n">
-        <v>73.58647440269705</v>
+        <v>31.41687832283919</v>
       </c>
       <c r="AH16" t="n">
-        <v>50.01420148260891</v>
+        <v>55.9400384568732</v>
       </c>
       <c r="AI16" t="n">
-        <v>21.20206040147101</v>
+        <v>50.63260414995707</v>
       </c>
       <c r="AJ16" t="n">
-        <v>48.42756396641278</v>
+        <v>22.74525139481928</v>
       </c>
       <c r="AK16" t="n">
-        <v>29.45348219067789</v>
+        <v>131.3210388196604</v>
       </c>
       <c r="AL16" t="n">
-        <v>49.30381555000967</v>
+        <v>16.31761760248175</v>
       </c>
       <c r="AM16" t="n">
-        <v>40.55789867283971</v>
+        <v>14.06262672475943</v>
       </c>
       <c r="AN16" t="n">
-        <v>46.9620303765713</v>
+        <v>23.74871661371237</v>
       </c>
       <c r="AO16" t="n">
-        <v>14.35469433414741</v>
+        <v>14.75605796840248</v>
       </c>
       <c r="AP16" t="n">
-        <v>33.7569413019435</v>
+        <v>19.64691823474198</v>
       </c>
       <c r="AQ16" t="n">
-        <v>12.31236496415826</v>
+        <v>15.20728904657133</v>
       </c>
       <c r="AR16" t="n">
-        <v>16.92864022728806</v>
+        <v>10.85518835797846</v>
       </c>
       <c r="AS16" t="n">
-        <v>11.32105315089221</v>
+        <v>23.22533986304185</v>
       </c>
       <c r="AT16" t="n">
-        <v>8.288463336569512</v>
+        <v>11.22414135578117</v>
       </c>
       <c r="AU16" t="n">
-        <v>15.81766074139331</v>
+        <v>8.011344912814875</v>
       </c>
       <c r="AV16" t="n">
-        <v>11.99709023484115</v>
+        <v>6.530189511920373</v>
       </c>
       <c r="AW16" t="n">
-        <v>9.118158026992447</v>
+        <v>9.15814302367952</v>
       </c>
       <c r="AX16" t="n">
-        <v>6.593395847675673</v>
+        <v>7.554436536358291</v>
       </c>
     </row>
     <row r="17">
@@ -2973,148 +2973,148 @@
         <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>8.448479909968569</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>17.47789198792167</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>15.00613153352374</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>32.35734222895339</v>
+        <v>14.12027948860944</v>
       </c>
       <c r="G17" t="n">
-        <v>18.04750168014566</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>44.41175358995272</v>
+        <v>8.754552561899615</v>
       </c>
       <c r="I17" t="n">
-        <v>90.18561589512012</v>
+        <v>112.9827235866763</v>
       </c>
       <c r="J17" t="n">
-        <v>30.31339887714909</v>
+        <v>33.08962490432367</v>
       </c>
       <c r="K17" t="n">
-        <v>91.54875092844833</v>
+        <v>59.05845151215665</v>
       </c>
       <c r="L17" t="n">
-        <v>38.18125573327708</v>
+        <v>51.81048609957856</v>
       </c>
       <c r="M17" t="n">
-        <v>80.45035693661431</v>
+        <v>14.98181072754543</v>
       </c>
       <c r="N17" t="n">
-        <v>67.88374725099696</v>
+        <v>55.35794679925311</v>
       </c>
       <c r="O17" t="n">
-        <v>19.2304568760102</v>
+        <v>6.557311079573505</v>
       </c>
       <c r="P17" t="n">
-        <v>163.5313551858217</v>
+        <v>104.081677797219</v>
       </c>
       <c r="Q17" t="n">
-        <v>34.52186705258939</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>28.63760174783532</v>
+        <v>16.54384156481081</v>
       </c>
       <c r="S17" t="n">
-        <v>73.46397141153233</v>
+        <v>42.85366311748908</v>
       </c>
       <c r="T17" t="n">
-        <v>46.60886056303612</v>
+        <v>45.81913307150288</v>
       </c>
       <c r="U17" t="n">
-        <v>57.77309215401527</v>
+        <v>66.85308932102916</v>
       </c>
       <c r="V17" t="n">
-        <v>45.68520274095603</v>
+        <v>42.85482522085903</v>
       </c>
       <c r="W17" t="n">
-        <v>41.48713648428392</v>
+        <v>34.90389344823787</v>
       </c>
       <c r="X17" t="n">
-        <v>14.30245946043385</v>
+        <v>39.63446893187681</v>
       </c>
       <c r="Y17" t="n">
-        <v>76.14250711854257</v>
+        <v>52.11587693865545</v>
       </c>
       <c r="Z17" t="n">
-        <v>26.98265782762176</v>
+        <v>48.09106846582227</v>
       </c>
       <c r="AA17" t="n">
-        <v>91.50880484389025</v>
+        <v>22.79355995141297</v>
       </c>
       <c r="AB17" t="n">
-        <v>62.65130914216554</v>
+        <v>25.82401621922605</v>
       </c>
       <c r="AC17" t="n">
-        <v>26.50903215187096</v>
+        <v>10.32980913323219</v>
       </c>
       <c r="AD17" t="n">
-        <v>16.52595779047121</v>
+        <v>17.43523376559708</v>
       </c>
       <c r="AE17" t="n">
-        <v>35.19698094951946</v>
+        <v>25.94400580330916</v>
       </c>
       <c r="AF17" t="n">
-        <v>54.56847899203938</v>
+        <v>14.40841025479792</v>
       </c>
       <c r="AG17" t="n">
-        <v>50.30132743597436</v>
+        <v>0</v>
       </c>
       <c r="AH17" t="n">
-        <v>54.78119458144747</v>
+        <v>11.83835161211135</v>
       </c>
       <c r="AI17" t="n">
-        <v>18.30425100988093</v>
+        <v>9.530800710780666</v>
       </c>
       <c r="AJ17" t="n">
-        <v>27.33521605307785</v>
+        <v>14.84041033640386</v>
       </c>
       <c r="AK17" t="n">
-        <v>35.32885703984631</v>
+        <v>15.40683118594165</v>
       </c>
       <c r="AL17" t="n">
-        <v>34.98097533689271</v>
+        <v>64.53399150277703</v>
       </c>
       <c r="AM17" t="n">
-        <v>20.63648897909935</v>
+        <v>39.17802720320859</v>
       </c>
       <c r="AN17" t="n">
-        <v>30.97364830054957</v>
+        <v>37.7775262477089</v>
       </c>
       <c r="AO17" t="n">
-        <v>30.85362656262628</v>
+        <v>68.01839926724577</v>
       </c>
       <c r="AP17" t="n">
-        <v>23.48343322518248</v>
+        <v>34.80226091870389</v>
       </c>
       <c r="AQ17" t="n">
-        <v>14.28621795426719</v>
+        <v>22.24507856836778</v>
       </c>
       <c r="AR17" t="n">
-        <v>22.75261554726125</v>
+        <v>14.52552296216615</v>
       </c>
       <c r="AS17" t="n">
-        <v>21.19403887117291</v>
+        <v>21.09540885953099</v>
       </c>
       <c r="AT17" t="n">
-        <v>32.18291231344148</v>
+        <v>40.85044772753309</v>
       </c>
       <c r="AU17" t="n">
-        <v>3.723024015000453</v>
+        <v>34.12107674474427</v>
       </c>
       <c r="AV17" t="n">
-        <v>30.98620958354871</v>
+        <v>26.30440105065694</v>
       </c>
       <c r="AW17" t="n">
-        <v>8.694854472492715</v>
+        <v>19.63298205393338</v>
       </c>
       <c r="AX17" t="n">
-        <v>0</v>
+        <v>16.26233389594925</v>
       </c>
     </row>
     <row r="18">
@@ -3125,148 +3125,148 @@
         <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>6.010444542327343</v>
       </c>
       <c r="D18" t="n">
-        <v>25.09057083802741</v>
+        <v>2.692786153114747</v>
       </c>
       <c r="E18" t="n">
-        <v>5.065025509359426</v>
+        <v>12.87899580388977</v>
       </c>
       <c r="F18" t="n">
-        <v>4.927342148102336</v>
+        <v>8.837901834563883</v>
       </c>
       <c r="G18" t="n">
-        <v>5.182841017161159</v>
+        <v>8.766599898430645</v>
       </c>
       <c r="H18" t="n">
-        <v>1.495117318525373</v>
+        <v>43.43142903438415</v>
       </c>
       <c r="I18" t="n">
-        <v>13.87029319783594</v>
+        <v>5.659350221893353</v>
       </c>
       <c r="J18" t="n">
-        <v>2.841130642893583</v>
+        <v>79.08325940818658</v>
       </c>
       <c r="K18" t="n">
-        <v>9.66875557056486</v>
+        <v>33.30984989383114</v>
       </c>
       <c r="L18" t="n">
-        <v>16.48759096417692</v>
+        <v>9.419050660091164</v>
       </c>
       <c r="M18" t="n">
-        <v>25.17987824482497</v>
+        <v>17.05013173893143</v>
       </c>
       <c r="N18" t="n">
-        <v>51.67685116057366</v>
+        <v>11.29201512764982</v>
       </c>
       <c r="O18" t="n">
-        <v>31.60090849436549</v>
+        <v>72.48952638384058</v>
       </c>
       <c r="P18" t="n">
-        <v>27.29695022199865</v>
+        <v>14.24790597559027</v>
       </c>
       <c r="Q18" t="n">
-        <v>10.31455638721276</v>
+        <v>48.38813069176305</v>
       </c>
       <c r="R18" t="n">
-        <v>24.82042338628492</v>
+        <v>39.26371292739214</v>
       </c>
       <c r="S18" t="n">
-        <v>17.51952357035659</v>
+        <v>16.39942585961114</v>
       </c>
       <c r="T18" t="n">
-        <v>127.6477688068686</v>
+        <v>16.54534762220652</v>
       </c>
       <c r="U18" t="n">
-        <v>9.117079804817989</v>
+        <v>27.36221706156783</v>
       </c>
       <c r="V18" t="n">
-        <v>43.71227136549771</v>
+        <v>44.16254981939609</v>
       </c>
       <c r="W18" t="n">
-        <v>12.58620226392037</v>
+        <v>39.67975610313258</v>
       </c>
       <c r="X18" t="n">
-        <v>14.40256015465113</v>
+        <v>21.51352931284454</v>
       </c>
       <c r="Y18" t="n">
-        <v>15.50910860933904</v>
+        <v>9.773077152291446</v>
       </c>
       <c r="Z18" t="n">
-        <v>24.12685460037765</v>
+        <v>14.78793816181776</v>
       </c>
       <c r="AA18" t="n">
-        <v>3.576912201577078</v>
+        <v>11.08422857255996</v>
       </c>
       <c r="AB18" t="n">
-        <v>13.91379964754101</v>
+        <v>17.22291255655434</v>
       </c>
       <c r="AC18" t="n">
-        <v>55.21298893026402</v>
+        <v>21.89327293781205</v>
       </c>
       <c r="AD18" t="n">
-        <v>12.40794306033599</v>
+        <v>17.89078023830313</v>
       </c>
       <c r="AE18" t="n">
-        <v>17.72240084723485</v>
+        <v>17.98636499265124</v>
       </c>
       <c r="AF18" t="n">
-        <v>32.64348350944449</v>
+        <v>7.497522932973947</v>
       </c>
       <c r="AG18" t="n">
-        <v>9.023665044736466</v>
+        <v>13.98708367340473</v>
       </c>
       <c r="AH18" t="n">
-        <v>5.651413925250248</v>
+        <v>4.125178526357024</v>
       </c>
       <c r="AI18" t="n">
-        <v>12.86207028769447</v>
+        <v>8.530679765567772</v>
       </c>
       <c r="AJ18" t="n">
-        <v>13.89712466207841</v>
+        <v>9.805565507084182</v>
       </c>
       <c r="AK18" t="n">
-        <v>1.401683395561847</v>
+        <v>4.042862279336044</v>
       </c>
       <c r="AL18" t="n">
-        <v>2.166716592667934</v>
+        <v>7.301786791209707</v>
       </c>
       <c r="AM18" t="n">
-        <v>4.563937219105705</v>
+        <v>3.299640261615638</v>
       </c>
       <c r="AN18" t="n">
-        <v>0.6031332869675444</v>
+        <v>8.219761106797396</v>
       </c>
       <c r="AO18" t="n">
-        <v>5.289922794934287</v>
+        <v>11.38873126059112</v>
       </c>
       <c r="AP18" t="n">
-        <v>6.011073973715217</v>
+        <v>0</v>
       </c>
       <c r="AQ18" t="n">
-        <v>2.623687559564902</v>
+        <v>0.9719996234758226</v>
       </c>
       <c r="AR18" t="n">
-        <v>1.594052618693608</v>
+        <v>1.20540101576821</v>
       </c>
       <c r="AS18" t="n">
-        <v>2.230091775944641</v>
+        <v>6.028456427603</v>
       </c>
       <c r="AT18" t="n">
-        <v>5.01703709901019</v>
+        <v>2.230652817540122</v>
       </c>
       <c r="AU18" t="n">
-        <v>3.046406052292994</v>
+        <v>5.462534434477162</v>
       </c>
       <c r="AV18" t="n">
-        <v>2.11784781288385</v>
+        <v>2.835160000522114</v>
       </c>
       <c r="AW18" t="n">
-        <v>3.942382714011688</v>
+        <v>0.6854080073953035</v>
       </c>
       <c r="AX18" t="n">
-        <v>0.7090689762302458</v>
+        <v>0.6612618760835355</v>
       </c>
     </row>
     <row r="19">
@@ -3277,148 +3277,148 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>4.285385111755961</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>5.363183616950021</v>
+        <v>14.73755491580741</v>
       </c>
       <c r="E19" t="n">
-        <v>17.95518394477013</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>12.34455583166647</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>5.655178054876699</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>33.88017906027849</v>
+        <v>28.72335017766602</v>
       </c>
       <c r="I19" t="n">
-        <v>25.589737897306</v>
+        <v>14.93932200173195</v>
       </c>
       <c r="J19" t="n">
-        <v>24.17217534389155</v>
+        <v>24.12151555156244</v>
       </c>
       <c r="K19" t="n">
-        <v>37.68330453005035</v>
+        <v>108.9565910565971</v>
       </c>
       <c r="L19" t="n">
-        <v>20.62723485790256</v>
+        <v>44.65314994181099</v>
       </c>
       <c r="M19" t="n">
-        <v>47.42614023002817</v>
+        <v>114.0553029998301</v>
       </c>
       <c r="N19" t="n">
-        <v>45.19236228132347</v>
+        <v>34.14623158362912</v>
       </c>
       <c r="O19" t="n">
-        <v>17.23974462466115</v>
+        <v>15.06494213789906</v>
       </c>
       <c r="P19" t="n">
-        <v>12.74472899466191</v>
+        <v>31.6940397870092</v>
       </c>
       <c r="Q19" t="n">
-        <v>96.69127791534112</v>
+        <v>18.93571446926768</v>
       </c>
       <c r="R19" t="n">
-        <v>87.13063459432071</v>
+        <v>48.61129164956395</v>
       </c>
       <c r="S19" t="n">
-        <v>26.62710366225172</v>
+        <v>34.84023953230866</v>
       </c>
       <c r="T19" t="n">
-        <v>79.79701084685188</v>
+        <v>42.25204933398813</v>
       </c>
       <c r="U19" t="n">
-        <v>52.5051062812455</v>
+        <v>29.24172681547883</v>
       </c>
       <c r="V19" t="n">
-        <v>41.6978504771872</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0.05405973777087159</v>
+        <v>8.833249791462906</v>
       </c>
       <c r="X19" t="n">
-        <v>46.04336476698334</v>
+        <v>117.3006826366765</v>
       </c>
       <c r="Y19" t="n">
-        <v>23.33289440948307</v>
+        <v>11.46790460166836</v>
       </c>
       <c r="Z19" t="n">
-        <v>12.10810181581989</v>
+        <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>4.507910956829944</v>
+        <v>21.63257103766471</v>
       </c>
       <c r="AB19" t="n">
-        <v>1.80729182688787</v>
+        <v>36.981558501903</v>
       </c>
       <c r="AC19" t="n">
-        <v>21.01317283685844</v>
+        <v>25.33045574103226</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>13.92457261127759</v>
       </c>
       <c r="AE19" t="n">
-        <v>17.04188640143634</v>
+        <v>15.09924282013503</v>
       </c>
       <c r="AF19" t="n">
-        <v>32.01188885746023</v>
+        <v>20.5724080611925</v>
       </c>
       <c r="AG19" t="n">
-        <v>21.99795221688609</v>
+        <v>25.12104143657647</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.1958457410645403</v>
+        <v>18.27139219877092</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>11.40222144988088</v>
       </c>
       <c r="AJ19" t="n">
-        <v>4.435141160094176</v>
+        <v>10.26146077144452</v>
       </c>
       <c r="AK19" t="n">
-        <v>3.944429403170274</v>
+        <v>5.177428959754199</v>
       </c>
       <c r="AL19" t="n">
-        <v>8.590772409136003</v>
+        <v>0</v>
       </c>
       <c r="AM19" t="n">
-        <v>8.082607393027956</v>
+        <v>6.050308089047013</v>
       </c>
       <c r="AN19" t="n">
-        <v>2.672647524880573</v>
+        <v>0</v>
       </c>
       <c r="AO19" t="n">
-        <v>2.191719141031637</v>
+        <v>4.112760011548653</v>
       </c>
       <c r="AP19" t="n">
-        <v>4.446694031181885</v>
+        <v>17.15173925275443</v>
       </c>
       <c r="AQ19" t="n">
-        <v>2.4667364875867</v>
+        <v>6.867474133143894</v>
       </c>
       <c r="AR19" t="n">
-        <v>11.39560250775736</v>
+        <v>8.930340239259627</v>
       </c>
       <c r="AS19" t="n">
-        <v>16.59638567458238</v>
+        <v>0.8490600872931059</v>
       </c>
       <c r="AT19" t="n">
-        <v>4.311827787187818</v>
+        <v>0</v>
       </c>
       <c r="AU19" t="n">
-        <v>9.823985652324076</v>
+        <v>7.153606952912929</v>
       </c>
       <c r="AV19" t="n">
-        <v>0</v>
+        <v>17.09327255659772</v>
       </c>
       <c r="AW19" t="n">
-        <v>14.07319867189111</v>
+        <v>15.06858252103613</v>
       </c>
       <c r="AX19" t="n">
-        <v>7.469105527384878</v>
+        <v>1.441128287961789</v>
       </c>
     </row>
     <row r="20">
@@ -3429,148 +3429,148 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>16.6523500288519</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>32.58466108048103</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>2.468899520721494</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>36.11358046219497</v>
+        <v>16.06533500345147</v>
       </c>
       <c r="G20" t="n">
-        <v>39.64971077524012</v>
+        <v>16.75873349210633</v>
       </c>
       <c r="H20" t="n">
-        <v>28.77475814457994</v>
+        <v>4.842065521582011</v>
       </c>
       <c r="I20" t="n">
-        <v>227.9390789607314</v>
+        <v>59.99710313570937</v>
       </c>
       <c r="J20" t="n">
-        <v>109.298530344848</v>
+        <v>39.28354888688973</v>
       </c>
       <c r="K20" t="n">
-        <v>69.25725798785244</v>
+        <v>123.2807877487365</v>
       </c>
       <c r="L20" t="n">
-        <v>26.91495982961607</v>
+        <v>52.35782912830103</v>
       </c>
       <c r="M20" t="n">
-        <v>85.55986177871284</v>
+        <v>75.40768446141601</v>
       </c>
       <c r="N20" t="n">
-        <v>80.03243678371683</v>
+        <v>55.42259961284896</v>
       </c>
       <c r="O20" t="n">
-        <v>49.93008588266686</v>
+        <v>41.1828696770187</v>
       </c>
       <c r="P20" t="n">
-        <v>37.89397576377685</v>
+        <v>24.74283980089091</v>
       </c>
       <c r="Q20" t="n">
-        <v>57.14442971203448</v>
+        <v>75.12847056414789</v>
       </c>
       <c r="R20" t="n">
-        <v>48.67037219034538</v>
+        <v>33.78803994153594</v>
       </c>
       <c r="S20" t="n">
-        <v>93.08831747559525</v>
+        <v>104.2932748364197</v>
       </c>
       <c r="T20" t="n">
-        <v>42.43965499465565</v>
+        <v>20.3518434127746</v>
       </c>
       <c r="U20" t="n">
-        <v>37.83061953404567</v>
+        <v>21.40043036171834</v>
       </c>
       <c r="V20" t="n">
-        <v>30.16068174355127</v>
+        <v>59.49986027722398</v>
       </c>
       <c r="W20" t="n">
-        <v>48.45319201547753</v>
+        <v>62.78780132672721</v>
       </c>
       <c r="X20" t="n">
-        <v>64.18876988657418</v>
+        <v>208.857635805795</v>
       </c>
       <c r="Y20" t="n">
-        <v>85.46105104452964</v>
+        <v>125.7377747449773</v>
       </c>
       <c r="Z20" t="n">
-        <v>56.15261991420667</v>
+        <v>92.33099445629058</v>
       </c>
       <c r="AA20" t="n">
-        <v>130.3513324665175</v>
+        <v>93.32837402058675</v>
       </c>
       <c r="AB20" t="n">
-        <v>77.72838824683421</v>
+        <v>100.1836308424546</v>
       </c>
       <c r="AC20" t="n">
-        <v>119.8292405862205</v>
+        <v>115.2157191633089</v>
       </c>
       <c r="AD20" t="n">
-        <v>78.16027877114317</v>
+        <v>146.3604018620379</v>
       </c>
       <c r="AE20" t="n">
-        <v>71.48754157875116</v>
+        <v>37.65659195586964</v>
       </c>
       <c r="AF20" t="n">
-        <v>131.5143138604242</v>
+        <v>44.28529063671716</v>
       </c>
       <c r="AG20" t="n">
-        <v>131.7473580092152</v>
+        <v>15.48088973655826</v>
       </c>
       <c r="AH20" t="n">
-        <v>215.3680201655073</v>
+        <v>13.0826682299291</v>
       </c>
       <c r="AI20" t="n">
-        <v>58.35439494300771</v>
+        <v>55.1133807222033</v>
       </c>
       <c r="AJ20" t="n">
-        <v>68.86215967131686</v>
+        <v>191.6847662566515</v>
       </c>
       <c r="AK20" t="n">
-        <v>35.88692615383444</v>
+        <v>42.6362616835796</v>
       </c>
       <c r="AL20" t="n">
-        <v>82.4779796307806</v>
+        <v>31.42729317894734</v>
       </c>
       <c r="AM20" t="n">
-        <v>29.5365029027266</v>
+        <v>54.07398586786063</v>
       </c>
       <c r="AN20" t="n">
-        <v>13.49542168392127</v>
+        <v>28.02705866640708</v>
       </c>
       <c r="AO20" t="n">
-        <v>30.38109106158246</v>
+        <v>12.71402994561328</v>
       </c>
       <c r="AP20" t="n">
-        <v>34.33115113780279</v>
+        <v>30.68342278605754</v>
       </c>
       <c r="AQ20" t="n">
-        <v>15.80776850140141</v>
+        <v>20.08746282986564</v>
       </c>
       <c r="AR20" t="n">
-        <v>23.31353515965085</v>
+        <v>23.2302742960992</v>
       </c>
       <c r="AS20" t="n">
-        <v>39.00814050568587</v>
+        <v>21.58461428220624</v>
       </c>
       <c r="AT20" t="n">
-        <v>11.94201075148676</v>
+        <v>12.6752546320874</v>
       </c>
       <c r="AU20" t="n">
-        <v>27.18638364781406</v>
+        <v>11.15016550313874</v>
       </c>
       <c r="AV20" t="n">
-        <v>20.98682943796979</v>
+        <v>21.70157243522358</v>
       </c>
       <c r="AW20" t="n">
-        <v>21.74702912179964</v>
+        <v>24.57671337136093</v>
       </c>
       <c r="AX20" t="n">
-        <v>25.41211687338663</v>
+        <v>21.78127339866835</v>
       </c>
     </row>
     <row r="21">
@@ -3581,148 +3581,148 @@
         <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>1.307563204189351</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4216465156081217</v>
+        <v>10.68131317464293</v>
       </c>
       <c r="E21" t="n">
-        <v>1.505172341199632</v>
+        <v>3.877014745700593</v>
       </c>
       <c r="F21" t="n">
-        <v>0.5251722096264082</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.380988761194683</v>
+        <v>3.115777607576318</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>4.916096184081634</v>
       </c>
       <c r="I21" t="n">
-        <v>3.154087470357172</v>
+        <v>1.561941480735956</v>
       </c>
       <c r="J21" t="n">
-        <v>4.446608862160415</v>
+        <v>1.757054798547848</v>
       </c>
       <c r="K21" t="n">
-        <v>1.071893824933345</v>
+        <v>4.475459147086731</v>
       </c>
       <c r="L21" t="n">
-        <v>3.588851533757921</v>
+        <v>4.590036471988357</v>
       </c>
       <c r="M21" t="n">
-        <v>4.843042032435578</v>
+        <v>3.166994136546941</v>
       </c>
       <c r="N21" t="n">
-        <v>3.395963304697633</v>
+        <v>4.053865494489617</v>
       </c>
       <c r="O21" t="n">
-        <v>8.519500799270316</v>
+        <v>5.878100652952758</v>
       </c>
       <c r="P21" t="n">
-        <v>10.27155576252649</v>
+        <v>3.857356980833959</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.934186813607974</v>
+        <v>4.889297826395752</v>
       </c>
       <c r="R21" t="n">
-        <v>5.776100280673288</v>
+        <v>3.163689184433134</v>
       </c>
       <c r="S21" t="n">
-        <v>4.444156543788959</v>
+        <v>0.2695272605819945</v>
       </c>
       <c r="T21" t="n">
-        <v>3.057941625229738</v>
+        <v>2.453435997749616</v>
       </c>
       <c r="U21" t="n">
-        <v>2.831819773269387</v>
+        <v>6.286970010331845</v>
       </c>
       <c r="V21" t="n">
-        <v>5.15822779795408</v>
+        <v>10.50601287438755</v>
       </c>
       <c r="W21" t="n">
-        <v>6.026433537771992</v>
+        <v>6.397954179054235</v>
       </c>
       <c r="X21" t="n">
-        <v>2.395177391571714</v>
+        <v>1.454976875929059</v>
       </c>
       <c r="Y21" t="n">
-        <v>3.318076569552181</v>
+        <v>2.535965267314495</v>
       </c>
       <c r="Z21" t="n">
-        <v>4.550342238069929</v>
+        <v>6.194263685702775</v>
       </c>
       <c r="AA21" t="n">
-        <v>5.222564473430551</v>
+        <v>4.057478608489143</v>
       </c>
       <c r="AB21" t="n">
-        <v>5.295127183041716</v>
+        <v>6.700358657198577</v>
       </c>
       <c r="AC21" t="n">
-        <v>9.730339143742397</v>
+        <v>3.705252943656598</v>
       </c>
       <c r="AD21" t="n">
-        <v>4.165641442431784</v>
+        <v>8.837383339549842</v>
       </c>
       <c r="AE21" t="n">
-        <v>5.817201014251626</v>
+        <v>5.275024491063902</v>
       </c>
       <c r="AF21" t="n">
-        <v>4.104511703419443</v>
+        <v>6.538337841081527</v>
       </c>
       <c r="AG21" t="n">
-        <v>6.208337168941786</v>
+        <v>10.53171864741996</v>
       </c>
       <c r="AH21" t="n">
-        <v>7.381181955438095</v>
+        <v>8.415020591059946</v>
       </c>
       <c r="AI21" t="n">
-        <v>1.259431386257315</v>
+        <v>6.342175018849675</v>
       </c>
       <c r="AJ21" t="n">
-        <v>9.99264313872632</v>
+        <v>4.068591757930018</v>
       </c>
       <c r="AK21" t="n">
-        <v>2.45664431539279</v>
+        <v>6.540115448232935</v>
       </c>
       <c r="AL21" t="n">
-        <v>3.889233294250282</v>
+        <v>6.150602568562114</v>
       </c>
       <c r="AM21" t="n">
-        <v>6.164068211121606</v>
+        <v>3.212945658514738</v>
       </c>
       <c r="AN21" t="n">
-        <v>5.276816501617061</v>
+        <v>2.475345504058969</v>
       </c>
       <c r="AO21" t="n">
-        <v>4.207190824346451</v>
+        <v>4.14516436533809</v>
       </c>
       <c r="AP21" t="n">
-        <v>2.069314288220186</v>
+        <v>1.393112135768412</v>
       </c>
       <c r="AQ21" t="n">
-        <v>5.575671514039048</v>
+        <v>5.698561533503537</v>
       </c>
       <c r="AR21" t="n">
-        <v>0.07587910952631854</v>
+        <v>2.932256722838206</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.235441113552535</v>
+        <v>3.757792582624866</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.656587723880886</v>
+        <v>4.947589515114227</v>
       </c>
       <c r="AU21" t="n">
-        <v>3.311264033358602</v>
+        <v>3.538704459115778</v>
       </c>
       <c r="AV21" t="n">
-        <v>5.056712100221408</v>
+        <v>2.829001317221392</v>
       </c>
       <c r="AW21" t="n">
-        <v>11.16607754758729</v>
+        <v>2.584460876259807</v>
       </c>
       <c r="AX21" t="n">
-        <v>0</v>
+        <v>2.786054061662796</v>
       </c>
     </row>
     <row r="22">
@@ -3733,148 +3733,148 @@
         <v>4</v>
       </c>
       <c r="C22" t="n">
-        <v>7.657002227582647</v>
+        <v>13.17554636990403</v>
       </c>
       <c r="D22" t="n">
-        <v>10.92000661752796</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>45.89481147189964</v>
+        <v>25.71926917468755</v>
       </c>
       <c r="F22" t="n">
-        <v>25.76690927482506</v>
+        <v>14.43374521802458</v>
       </c>
       <c r="G22" t="n">
-        <v>6.801453447577138</v>
+        <v>5.041760790007468</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1322772463596493</v>
+        <v>73.29153819483832</v>
       </c>
       <c r="I22" t="n">
-        <v>18.68273852901623</v>
+        <v>45.17600367465484</v>
       </c>
       <c r="J22" t="n">
-        <v>35.13554471811742</v>
+        <v>23.79435554980051</v>
       </c>
       <c r="K22" t="n">
-        <v>153.5074412696068</v>
+        <v>17.29180122962663</v>
       </c>
       <c r="L22" t="n">
-        <v>36.58268797275935</v>
+        <v>111.3687323256047</v>
       </c>
       <c r="M22" t="n">
-        <v>50.38308775786796</v>
+        <v>254.0591016376469</v>
       </c>
       <c r="N22" t="n">
-        <v>110.7830380725344</v>
+        <v>150.7635422584238</v>
       </c>
       <c r="O22" t="n">
-        <v>23.46393163250178</v>
+        <v>60.45463321894298</v>
       </c>
       <c r="P22" t="n">
-        <v>86.34809335656428</v>
+        <v>64.0056806025772</v>
       </c>
       <c r="Q22" t="n">
-        <v>59.16306721773419</v>
+        <v>117.3183771941528</v>
       </c>
       <c r="R22" t="n">
-        <v>14.15983805939141</v>
+        <v>5.267756187417117</v>
       </c>
       <c r="S22" t="n">
-        <v>91.38993666546509</v>
+        <v>27.48433602813539</v>
       </c>
       <c r="T22" t="n">
-        <v>69.50243973746223</v>
+        <v>70.63524760196867</v>
       </c>
       <c r="U22" t="n">
-        <v>56.99907154041188</v>
+        <v>46.11726492747093</v>
       </c>
       <c r="V22" t="n">
-        <v>114.227302271595</v>
+        <v>128.2754826579497</v>
       </c>
       <c r="W22" t="n">
-        <v>50.85697743976626</v>
+        <v>55.4641338308511</v>
       </c>
       <c r="X22" t="n">
-        <v>73.99961986152817</v>
+        <v>67.28297293335785</v>
       </c>
       <c r="Y22" t="n">
-        <v>33.63881045727022</v>
+        <v>34.25580003235068</v>
       </c>
       <c r="Z22" t="n">
-        <v>27.60527257300191</v>
+        <v>127.6050906569654</v>
       </c>
       <c r="AA22" t="n">
-        <v>39.49007088303595</v>
+        <v>67.02794830397862</v>
       </c>
       <c r="AB22" t="n">
-        <v>27.3445096484562</v>
+        <v>106.1022089127811</v>
       </c>
       <c r="AC22" t="n">
-        <v>55.53963650237642</v>
+        <v>14.90820148262821</v>
       </c>
       <c r="AD22" t="n">
-        <v>66.95062133596278</v>
+        <v>90.57600671608824</v>
       </c>
       <c r="AE22" t="n">
-        <v>63.32021120830966</v>
+        <v>107.0906363886503</v>
       </c>
       <c r="AF22" t="n">
-        <v>66.20095573255476</v>
+        <v>54.34461529842893</v>
       </c>
       <c r="AG22" t="n">
-        <v>59.82903713049601</v>
+        <v>17.94773608296166</v>
       </c>
       <c r="AH22" t="n">
-        <v>46.82889305566658</v>
+        <v>78.18772504467969</v>
       </c>
       <c r="AI22" t="n">
-        <v>49.30477084003623</v>
+        <v>98.84813710511958</v>
       </c>
       <c r="AJ22" t="n">
-        <v>48.0602162988982</v>
+        <v>43.97219837651598</v>
       </c>
       <c r="AK22" t="n">
-        <v>37.29574841572263</v>
+        <v>28.60730245418676</v>
       </c>
       <c r="AL22" t="n">
-        <v>68.9245812955501</v>
+        <v>55.3067321152018</v>
       </c>
       <c r="AM22" t="n">
-        <v>35.14880813492344</v>
+        <v>35.721875069372</v>
       </c>
       <c r="AN22" t="n">
-        <v>35.09457842874396</v>
+        <v>15.67997135338264</v>
       </c>
       <c r="AO22" t="n">
-        <v>13.98077276298652</v>
+        <v>27.44561035290183</v>
       </c>
       <c r="AP22" t="n">
-        <v>23.18339121383462</v>
+        <v>14.5352765282132</v>
       </c>
       <c r="AQ22" t="n">
-        <v>18.46376076205965</v>
+        <v>24.67857699850182</v>
       </c>
       <c r="AR22" t="n">
-        <v>18.37478926610883</v>
+        <v>14.35480426812467</v>
       </c>
       <c r="AS22" t="n">
-        <v>23.46792709508224</v>
+        <v>7.520706235514533</v>
       </c>
       <c r="AT22" t="n">
-        <v>19.02800063693651</v>
+        <v>8.300753267887307</v>
       </c>
       <c r="AU22" t="n">
-        <v>11.86579479485942</v>
+        <v>11.21098649696023</v>
       </c>
       <c r="AV22" t="n">
-        <v>8.01217476480109</v>
+        <v>16.76765047304816</v>
       </c>
       <c r="AW22" t="n">
-        <v>11.85004266463759</v>
+        <v>12.4078385669128</v>
       </c>
       <c r="AX22" t="n">
-        <v>4.33909085966724</v>
+        <v>12.0405079193816</v>
       </c>
     </row>
     <row r="23">
@@ -3885,148 +3885,148 @@
         <v>4</v>
       </c>
       <c r="C23" t="n">
-        <v>7.179006182421514</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>7.616133235107059</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>2.103712197123951</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>13.42060248775498</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>37.66070262047413</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>29.57494553135779</v>
+        <v>12.44923275810295</v>
       </c>
       <c r="I23" t="n">
-        <v>27.56245901527666</v>
+        <v>122.7647626839025</v>
       </c>
       <c r="J23" t="n">
-        <v>73.80285547152343</v>
+        <v>49.68275764942362</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>47.64569774710019</v>
       </c>
       <c r="L23" t="n">
-        <v>0.8549971660127085</v>
+        <v>56.54641766140126</v>
       </c>
       <c r="M23" t="n">
-        <v>46.95607794464097</v>
+        <v>13.84765205901475</v>
       </c>
       <c r="N23" t="n">
-        <v>20.16042749930848</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>51.07264106155802</v>
+        <v>16.89566250343437</v>
       </c>
       <c r="P23" t="n">
-        <v>25.95556567350741</v>
+        <v>130.4813507855351</v>
       </c>
       <c r="Q23" t="n">
-        <v>122.5397180745383</v>
+        <v>119.2356322393101</v>
       </c>
       <c r="R23" t="n">
-        <v>178.9411952305355</v>
+        <v>125.7689749770663</v>
       </c>
       <c r="S23" t="n">
-        <v>36.99148318165071</v>
+        <v>87.89184467263489</v>
       </c>
       <c r="T23" t="n">
-        <v>67.2277594727055</v>
+        <v>42.90712962392873</v>
       </c>
       <c r="U23" t="n">
-        <v>47.26863126247442</v>
+        <v>126.6145259651612</v>
       </c>
       <c r="V23" t="n">
-        <v>27.23103069798143</v>
+        <v>23.10612640796885</v>
       </c>
       <c r="W23" t="n">
-        <v>36.30238471223979</v>
+        <v>18.38059640478054</v>
       </c>
       <c r="X23" t="n">
-        <v>7.980090299858526</v>
+        <v>12.7803122561653</v>
       </c>
       <c r="Y23" t="n">
-        <v>80.67225864610658</v>
+        <v>41.58340627237378</v>
       </c>
       <c r="Z23" t="n">
-        <v>9.605567702450312</v>
+        <v>33.26112714551559</v>
       </c>
       <c r="AA23" t="n">
-        <v>64.62959709900795</v>
+        <v>59.76889433836362</v>
       </c>
       <c r="AB23" t="n">
-        <v>5.52267573336837</v>
+        <v>55.46420642115152</v>
       </c>
       <c r="AC23" t="n">
-        <v>33.08304183980572</v>
+        <v>3.948784703109624</v>
       </c>
       <c r="AD23" t="n">
-        <v>27.47840292312354</v>
+        <v>31.73016320714509</v>
       </c>
       <c r="AE23" t="n">
-        <v>58.78051063217644</v>
+        <v>18.42906110337841</v>
       </c>
       <c r="AF23" t="n">
-        <v>52.16828003691285</v>
+        <v>30.94963600378903</v>
       </c>
       <c r="AG23" t="n">
-        <v>22.92094124562286</v>
+        <v>24.41231157189603</v>
       </c>
       <c r="AH23" t="n">
-        <v>0</v>
+        <v>20.64607574143307</v>
       </c>
       <c r="AI23" t="n">
-        <v>21.22165913598108</v>
+        <v>3.849783117081246</v>
       </c>
       <c r="AJ23" t="n">
-        <v>11.69499257745558</v>
+        <v>8.008434852391161</v>
       </c>
       <c r="AK23" t="n">
-        <v>52.75058148665889</v>
+        <v>6.662435521918646</v>
       </c>
       <c r="AL23" t="n">
-        <v>29.71567658112209</v>
+        <v>53.12400445731603</v>
       </c>
       <c r="AM23" t="n">
-        <v>32.88455966079952</v>
+        <v>0</v>
       </c>
       <c r="AN23" t="n">
-        <v>38.89812255710245</v>
+        <v>36.04437310323393</v>
       </c>
       <c r="AO23" t="n">
-        <v>35.87413860771812</v>
+        <v>23.05484539140587</v>
       </c>
       <c r="AP23" t="n">
-        <v>22.39997361935144</v>
+        <v>45.79902616554982</v>
       </c>
       <c r="AQ23" t="n">
-        <v>17.76175041502336</v>
+        <v>19.03578987261978</v>
       </c>
       <c r="AR23" t="n">
-        <v>31.17680446241589</v>
+        <v>20.30152582184131</v>
       </c>
       <c r="AS23" t="n">
-        <v>5.608938921267556</v>
+        <v>23.03479589540395</v>
       </c>
       <c r="AT23" t="n">
-        <v>25.86357685309716</v>
+        <v>30.70958245131578</v>
       </c>
       <c r="AU23" t="n">
-        <v>40.22966305512576</v>
+        <v>24.98085272601707</v>
       </c>
       <c r="AV23" t="n">
-        <v>4.346183250035804</v>
+        <v>37.1691095686605</v>
       </c>
       <c r="AW23" t="n">
-        <v>22.06970016943493</v>
+        <v>10.07480841179737</v>
       </c>
       <c r="AX23" t="n">
-        <v>18.51889826837138</v>
+        <v>12.56809946755012</v>
       </c>
     </row>
     <row r="24">
@@ -4037,148 +4037,148 @@
         <v>4</v>
       </c>
       <c r="C24" t="n">
-        <v>4.809876454460503</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>2.425683961529343</v>
+        <v>18.45374848502501</v>
       </c>
       <c r="E24" t="n">
-        <v>6.893174430048833</v>
+        <v>13.29616654203618</v>
       </c>
       <c r="F24" t="n">
-        <v>2.155771142169654</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>7.334884117432278</v>
+        <v>12.50239693755316</v>
       </c>
       <c r="H24" t="n">
-        <v>49.73809761689705</v>
+        <v>2.757747187504239</v>
       </c>
       <c r="I24" t="n">
-        <v>13.29602143787181</v>
+        <v>41.10346012135074</v>
       </c>
       <c r="J24" t="n">
-        <v>9.60789580579981</v>
+        <v>18.81939245577249</v>
       </c>
       <c r="K24" t="n">
-        <v>10.11391226005493</v>
+        <v>17.37421119091516</v>
       </c>
       <c r="L24" t="n">
-        <v>11.1459348300035</v>
+        <v>48.80801987334584</v>
       </c>
       <c r="M24" t="n">
-        <v>13.83453114678805</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>24.76271864173835</v>
+        <v>7.183673949166852</v>
       </c>
       <c r="O24" t="n">
-        <v>27.09752152020778</v>
+        <v>0.2076824762566805</v>
       </c>
       <c r="P24" t="n">
-        <v>78.83254940753706</v>
+        <v>22.65275584808888</v>
       </c>
       <c r="Q24" t="n">
-        <v>24.87902136684327</v>
+        <v>6.53728272782797</v>
       </c>
       <c r="R24" t="n">
-        <v>16.88105238961024</v>
+        <v>28.00280727304346</v>
       </c>
       <c r="S24" t="n">
-        <v>34.15681383569144</v>
+        <v>51.87533410786761</v>
       </c>
       <c r="T24" t="n">
-        <v>34.73743695632895</v>
+        <v>57.2368197185716</v>
       </c>
       <c r="U24" t="n">
-        <v>20.81359923304016</v>
+        <v>7.780777119911073</v>
       </c>
       <c r="V24" t="n">
-        <v>6.679415000691539</v>
+        <v>8.589907834747974</v>
       </c>
       <c r="W24" t="n">
-        <v>45.87517828014083</v>
+        <v>28.33199886006744</v>
       </c>
       <c r="X24" t="n">
-        <v>40.29725014237277</v>
+        <v>16.40143223538625</v>
       </c>
       <c r="Y24" t="n">
-        <v>11.80749124979298</v>
+        <v>15.66307318179137</v>
       </c>
       <c r="Z24" t="n">
-        <v>8.693841823605212</v>
+        <v>14.96644040126746</v>
       </c>
       <c r="AA24" t="n">
-        <v>18.34563474654935</v>
+        <v>26.06963161389288</v>
       </c>
       <c r="AB24" t="n">
-        <v>11.7435297039893</v>
+        <v>35.60540097790405</v>
       </c>
       <c r="AC24" t="n">
-        <v>19.11689025984114</v>
+        <v>24.48333858620874</v>
       </c>
       <c r="AD24" t="n">
-        <v>17.25879482689333</v>
+        <v>16.44565011429673</v>
       </c>
       <c r="AE24" t="n">
-        <v>3.542048160490524</v>
+        <v>28.55336904190958</v>
       </c>
       <c r="AF24" t="n">
-        <v>17.00809006847206</v>
+        <v>14.95716819678206</v>
       </c>
       <c r="AG24" t="n">
-        <v>12.20692300439038</v>
+        <v>12.29820150342135</v>
       </c>
       <c r="AH24" t="n">
-        <v>21.30985191723102</v>
+        <v>8.867086096266785</v>
       </c>
       <c r="AI24" t="n">
-        <v>8.253195606301118</v>
+        <v>3.50497771819993</v>
       </c>
       <c r="AJ24" t="n">
-        <v>11.6740119712788</v>
+        <v>22.9893467639986</v>
       </c>
       <c r="AK24" t="n">
-        <v>12.4468212038563</v>
+        <v>7.068906354791703</v>
       </c>
       <c r="AL24" t="n">
-        <v>8.803413350078165</v>
+        <v>4.227550990584678</v>
       </c>
       <c r="AM24" t="n">
-        <v>3.506427910729343</v>
+        <v>6.417330155130375</v>
       </c>
       <c r="AN24" t="n">
-        <v>3.895015467718974</v>
+        <v>6.386970402756729</v>
       </c>
       <c r="AO24" t="n">
-        <v>3.222844664740374</v>
+        <v>3.36941685110143</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.037885347838343</v>
+        <v>4.930476905356308</v>
       </c>
       <c r="AQ24" t="n">
-        <v>3.665467548184315</v>
+        <v>5.824120455121666</v>
       </c>
       <c r="AR24" t="n">
-        <v>12.73457163691201</v>
+        <v>1.498007064373399</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.520473509178903</v>
+        <v>3.293515610918796</v>
       </c>
       <c r="AT24" t="n">
-        <v>6.38062139971018</v>
+        <v>3.315827360667511</v>
       </c>
       <c r="AU24" t="n">
-        <v>1.889942517885705</v>
+        <v>5.247604671014667</v>
       </c>
       <c r="AV24" t="n">
-        <v>0</v>
+        <v>3.87268085268065</v>
       </c>
       <c r="AW24" t="n">
-        <v>3.633318087566948</v>
+        <v>1.859101342081884</v>
       </c>
       <c r="AX24" t="n">
-        <v>0.413717446283441</v>
+        <v>4.12962708828604</v>
       </c>
     </row>
     <row r="25">
@@ -4189,148 +4189,148 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>12.3953152735451</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>13.11833350833904</v>
+        <v>10.81406292234903</v>
       </c>
       <c r="E25" t="n">
-        <v>2.565338068851903</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>13.58945927149642</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>14.99326521353916</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>26.67044211856202</v>
+        <v>179.5120859388449</v>
       </c>
       <c r="I25" t="n">
-        <v>32.68640444368697</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>29.68705263175591</v>
+        <v>32.22884347735049</v>
       </c>
       <c r="K25" t="n">
-        <v>36.07197551428204</v>
+        <v>68.42873559582392</v>
       </c>
       <c r="L25" t="n">
-        <v>9.247801281884517</v>
+        <v>38.04842039740817</v>
       </c>
       <c r="M25" t="n">
-        <v>77.00233238855373</v>
+        <v>91.2575295293539</v>
       </c>
       <c r="N25" t="n">
-        <v>10.88893032857221</v>
+        <v>31.26752025704685</v>
       </c>
       <c r="O25" t="n">
-        <v>25.27487391194332</v>
+        <v>19.31540747374618</v>
       </c>
       <c r="P25" t="n">
-        <v>49.7605928521673</v>
+        <v>62.5907758608034</v>
       </c>
       <c r="Q25" t="n">
-        <v>12.15776594587481</v>
+        <v>16.23455258257634</v>
       </c>
       <c r="R25" t="n">
-        <v>46.8081059460773</v>
+        <v>40.21865943791506</v>
       </c>
       <c r="S25" t="n">
-        <v>14.72950899511119</v>
+        <v>35.04882940675279</v>
       </c>
       <c r="T25" t="n">
-        <v>46.07435360800741</v>
+        <v>76.51611334078912</v>
       </c>
       <c r="U25" t="n">
-        <v>38.26779567091921</v>
+        <v>96.02488579904985</v>
       </c>
       <c r="V25" t="n">
-        <v>59.94001237922163</v>
+        <v>55.89511189289742</v>
       </c>
       <c r="W25" t="n">
-        <v>65.55351290798676</v>
+        <v>7.688580721344612</v>
       </c>
       <c r="X25" t="n">
-        <v>59.04045926749614</v>
+        <v>5.392426491865372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>20.70714032979581</v>
       </c>
       <c r="Z25" t="n">
-        <v>18.70229982883639</v>
+        <v>23.56730853509067</v>
       </c>
       <c r="AA25" t="n">
-        <v>18.33990185016134</v>
+        <v>7.533803038271141</v>
       </c>
       <c r="AB25" t="n">
-        <v>19.93211769209195</v>
+        <v>9.429267124577809</v>
       </c>
       <c r="AC25" t="n">
-        <v>5.068200284145834</v>
+        <v>26.15073291219078</v>
       </c>
       <c r="AD25" t="n">
-        <v>2.341158649559622</v>
+        <v>33.74333463629172</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.5361786913829808</v>
+        <v>5.730169616463895</v>
       </c>
       <c r="AF25" t="n">
-        <v>58.11445966446916</v>
+        <v>14.19802972850525</v>
       </c>
       <c r="AG25" t="n">
-        <v>17.50338310965203</v>
+        <v>49.42114671333142</v>
       </c>
       <c r="AH25" t="n">
-        <v>8.643522668348359</v>
+        <v>2.506540390950528</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>7.630429031402542</v>
       </c>
       <c r="AJ25" t="n">
-        <v>12.00403643838382</v>
+        <v>0.6306540861796309</v>
       </c>
       <c r="AK25" t="n">
-        <v>0.6695277998624429</v>
+        <v>0</v>
       </c>
       <c r="AL25" t="n">
-        <v>17.21161043881314</v>
+        <v>0</v>
       </c>
       <c r="AM25" t="n">
-        <v>2.350513311992656</v>
+        <v>9.911966212313397</v>
       </c>
       <c r="AN25" t="n">
-        <v>3.755013241248821</v>
+        <v>3.204079794927382</v>
       </c>
       <c r="AO25" t="n">
-        <v>2.353983060793065</v>
+        <v>18.4984879272141</v>
       </c>
       <c r="AP25" t="n">
-        <v>7.940150624754926</v>
+        <v>10.63859706783619</v>
       </c>
       <c r="AQ25" t="n">
-        <v>4.297956911936884</v>
+        <v>6.132553414251509</v>
       </c>
       <c r="AR25" t="n">
-        <v>0.693590110306437</v>
+        <v>13.64555970532925</v>
       </c>
       <c r="AS25" t="n">
-        <v>5.452591592612388</v>
+        <v>15.7830414883077</v>
       </c>
       <c r="AT25" t="n">
-        <v>5.342631420995628</v>
+        <v>8.182265509665314</v>
       </c>
       <c r="AU25" t="n">
-        <v>11.25364438523915</v>
+        <v>2.068754201889083</v>
       </c>
       <c r="AV25" t="n">
-        <v>3.240811525357947</v>
+        <v>12.16442220274316</v>
       </c>
       <c r="AW25" t="n">
-        <v>23.17016225019509</v>
+        <v>1.431949886325426</v>
       </c>
       <c r="AX25" t="n">
-        <v>16.50004584463966</v>
+        <v>19.10601667378106</v>
       </c>
     </row>
     <row r="26">
@@ -4341,148 +4341,148 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>22.97109944578576</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>18.98904354372037</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>12.78328234627467</v>
+        <v>13.53392150042961</v>
       </c>
       <c r="F26" t="n">
-        <v>3.470970783340089</v>
+        <v>7.211485998123769</v>
       </c>
       <c r="G26" t="n">
-        <v>21.15549276923391</v>
+        <v>12.36611082274323</v>
       </c>
       <c r="H26" t="n">
-        <v>7.123694964415659</v>
+        <v>28.35180766518632</v>
       </c>
       <c r="I26" t="n">
-        <v>50.06858595092918</v>
+        <v>45.4576842755766</v>
       </c>
       <c r="J26" t="n">
-        <v>5.089155692832797</v>
+        <v>53.77251690200367</v>
       </c>
       <c r="K26" t="n">
-        <v>3.059836370882934</v>
+        <v>32.12341412050466</v>
       </c>
       <c r="L26" t="n">
-        <v>139.724236194706</v>
+        <v>88.5285263409704</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>27.80025814709503</v>
       </c>
       <c r="N26" t="n">
-        <v>57.64741530077404</v>
+        <v>30.54606118143696</v>
       </c>
       <c r="O26" t="n">
-        <v>55.75558891183084</v>
+        <v>20.1481251058338</v>
       </c>
       <c r="P26" t="n">
-        <v>46.86446951628376</v>
+        <v>49.72095917368701</v>
       </c>
       <c r="Q26" t="n">
-        <v>6.313289044898617</v>
+        <v>13.39452331937382</v>
       </c>
       <c r="R26" t="n">
-        <v>58.24169604032456</v>
+        <v>15.37703027773502</v>
       </c>
       <c r="S26" t="n">
-        <v>50.20164622085283</v>
+        <v>130.5562178093955</v>
       </c>
       <c r="T26" t="n">
-        <v>1.148482593628664</v>
+        <v>180.4037749242075</v>
       </c>
       <c r="U26" t="n">
-        <v>48.27617035991526</v>
+        <v>67.4566396784129</v>
       </c>
       <c r="V26" t="n">
-        <v>49.14831556748022</v>
+        <v>128.4602466483901</v>
       </c>
       <c r="W26" t="n">
-        <v>26.51115860886672</v>
+        <v>48.11219964759341</v>
       </c>
       <c r="X26" t="n">
-        <v>61.52969434839363</v>
+        <v>46.57901593647399</v>
       </c>
       <c r="Y26" t="n">
-        <v>85.97155825765458</v>
+        <v>98.7209814781321</v>
       </c>
       <c r="Z26" t="n">
-        <v>109.1232642073262</v>
+        <v>56.22219073926352</v>
       </c>
       <c r="AA26" t="n">
-        <v>66.25694222097867</v>
+        <v>71.22354933516651</v>
       </c>
       <c r="AB26" t="n">
-        <v>101.5022993642808</v>
+        <v>57.85572224815999</v>
       </c>
       <c r="AC26" t="n">
-        <v>123.7769193264788</v>
+        <v>107.6213340982709</v>
       </c>
       <c r="AD26" t="n">
-        <v>88.27209956292468</v>
+        <v>116.2363714481251</v>
       </c>
       <c r="AE26" t="n">
-        <v>88.99272196956716</v>
+        <v>95.81725674760901</v>
       </c>
       <c r="AF26" t="n">
-        <v>130.0142085045818</v>
+        <v>121.6734302675044</v>
       </c>
       <c r="AG26" t="n">
-        <v>149.6600984301425</v>
+        <v>122.282947473414</v>
       </c>
       <c r="AH26" t="n">
-        <v>182.0530414724673</v>
+        <v>121.618615735983</v>
       </c>
       <c r="AI26" t="n">
-        <v>115.5094771092887</v>
+        <v>170.1574616707885</v>
       </c>
       <c r="AJ26" t="n">
-        <v>41.82600788517353</v>
+        <v>89.08058065292914</v>
       </c>
       <c r="AK26" t="n">
-        <v>64.93259543653348</v>
+        <v>71.54929609731289</v>
       </c>
       <c r="AL26" t="n">
-        <v>98.89685304076181</v>
+        <v>15.10310289404048</v>
       </c>
       <c r="AM26" t="n">
-        <v>48.27137519739355</v>
+        <v>23.3655265727734</v>
       </c>
       <c r="AN26" t="n">
-        <v>48.19682526825682</v>
+        <v>27.85331925324941</v>
       </c>
       <c r="AO26" t="n">
-        <v>12.70623572025303</v>
+        <v>29.97709433464593</v>
       </c>
       <c r="AP26" t="n">
-        <v>32.81951946760079</v>
+        <v>27.07123717926923</v>
       </c>
       <c r="AQ26" t="n">
-        <v>56.9425332804063</v>
+        <v>22.64969528344114</v>
       </c>
       <c r="AR26" t="n">
-        <v>13.35802564183256</v>
+        <v>27.19920373012411</v>
       </c>
       <c r="AS26" t="n">
-        <v>20.46511913515947</v>
+        <v>30.01385270858465</v>
       </c>
       <c r="AT26" t="n">
-        <v>14.33289204727035</v>
+        <v>18.65585369441822</v>
       </c>
       <c r="AU26" t="n">
-        <v>22.3440021989398</v>
+        <v>14.32536140659475</v>
       </c>
       <c r="AV26" t="n">
-        <v>11.40467671531354</v>
+        <v>18.68933841180307</v>
       </c>
       <c r="AW26" t="n">
-        <v>15.27932330845246</v>
+        <v>17.31733475258285</v>
       </c>
       <c r="AX26" t="n">
-        <v>26.45153541654783</v>
+        <v>8.341336642126176</v>
       </c>
     </row>
     <row r="27">
@@ -4493,148 +4493,148 @@
         <v>5</v>
       </c>
       <c r="C27" t="n">
-        <v>3.410139229675057</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>1.251544085883129</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>2.40561641627774</v>
+        <v>2.681747771286401</v>
       </c>
       <c r="F27" t="n">
-        <v>2.841026501330101</v>
+        <v>2.224304815191608</v>
       </c>
       <c r="G27" t="n">
-        <v>3.90008659223431</v>
+        <v>3.871792782525446</v>
       </c>
       <c r="H27" t="n">
-        <v>0.7098161517738396</v>
+        <v>3.099419259731865</v>
       </c>
       <c r="I27" t="n">
-        <v>1.920094812142697</v>
+        <v>2.631186408378328</v>
       </c>
       <c r="J27" t="n">
-        <v>2.984373594963907</v>
+        <v>3.492678443865809</v>
       </c>
       <c r="K27" t="n">
-        <v>4.111352936009411</v>
+        <v>2.405900453544354</v>
       </c>
       <c r="L27" t="n">
-        <v>2.741230675078755</v>
+        <v>3.198090406127013</v>
       </c>
       <c r="M27" t="n">
-        <v>2.102893078779268</v>
+        <v>6.087724902355901</v>
       </c>
       <c r="N27" t="n">
-        <v>5.608867865709218</v>
+        <v>8.095179706734241</v>
       </c>
       <c r="O27" t="n">
-        <v>5.079273295381194</v>
+        <v>2.079985030185685</v>
       </c>
       <c r="P27" t="n">
-        <v>3.506851450349552</v>
+        <v>7.572268866675014</v>
       </c>
       <c r="Q27" t="n">
-        <v>3.326615748655629</v>
+        <v>2.110438160143869</v>
       </c>
       <c r="R27" t="n">
-        <v>2.503139502558595</v>
+        <v>7.747472958484028</v>
       </c>
       <c r="S27" t="n">
-        <v>6.358245881223595</v>
+        <v>8.23923447680524</v>
       </c>
       <c r="T27" t="n">
-        <v>1.139493129984488</v>
+        <v>2.81659687862683</v>
       </c>
       <c r="U27" t="n">
-        <v>2.308589588312653</v>
+        <v>11.484759281643</v>
       </c>
       <c r="V27" t="n">
-        <v>6.080265641573099</v>
+        <v>7.641297062846767</v>
       </c>
       <c r="W27" t="n">
-        <v>5.965861257896085</v>
+        <v>0.3048187920105987</v>
       </c>
       <c r="X27" t="n">
-        <v>4.986183297104865</v>
+        <v>4.942369043262953</v>
       </c>
       <c r="Y27" t="n">
-        <v>4.884115442141916</v>
+        <v>4.50343036156248</v>
       </c>
       <c r="Z27" t="n">
-        <v>6.243557167789538</v>
+        <v>4.26791542331372</v>
       </c>
       <c r="AA27" t="n">
-        <v>6.236064421731371</v>
+        <v>2.983398805433117</v>
       </c>
       <c r="AB27" t="n">
-        <v>4.14996275963926</v>
+        <v>5.923553602562716</v>
       </c>
       <c r="AC27" t="n">
-        <v>2.607823774166065</v>
+        <v>7.984128189363215</v>
       </c>
       <c r="AD27" t="n">
-        <v>6.78940724095</v>
+        <v>1.800797511346519</v>
       </c>
       <c r="AE27" t="n">
-        <v>5.828028925814563</v>
+        <v>5.788382108776641</v>
       </c>
       <c r="AF27" t="n">
-        <v>6.303615371869269</v>
+        <v>4.100388202672701</v>
       </c>
       <c r="AG27" t="n">
-        <v>4.237089383682306</v>
+        <v>6.470176720304304</v>
       </c>
       <c r="AH27" t="n">
-        <v>10.58751019446644</v>
+        <v>4.099136705065968</v>
       </c>
       <c r="AI27" t="n">
-        <v>7.117088866772064</v>
+        <v>4.017192385975494</v>
       </c>
       <c r="AJ27" t="n">
-        <v>10.22354695458038</v>
+        <v>3.624894627119606</v>
       </c>
       <c r="AK27" t="n">
-        <v>4.400835541140783</v>
+        <v>5.651938707965571</v>
       </c>
       <c r="AL27" t="n">
-        <v>3.145565196049402</v>
+        <v>6.927906276260202</v>
       </c>
       <c r="AM27" t="n">
-        <v>6.254630292070186</v>
+        <v>7.54057679560524</v>
       </c>
       <c r="AN27" t="n">
-        <v>2.661340978552654</v>
+        <v>4.987323095181671</v>
       </c>
       <c r="AO27" t="n">
-        <v>6.796813356450617</v>
+        <v>6.05071594228709</v>
       </c>
       <c r="AP27" t="n">
-        <v>3.589500570577362</v>
+        <v>4.670112358490666</v>
       </c>
       <c r="AQ27" t="n">
-        <v>3.297269294800925</v>
+        <v>4.551586136724108</v>
       </c>
       <c r="AR27" t="n">
-        <v>1.857408685879548</v>
+        <v>4.218793571437807</v>
       </c>
       <c r="AS27" t="n">
-        <v>2.467873322300868</v>
+        <v>2.125174551743754</v>
       </c>
       <c r="AT27" t="n">
-        <v>3.241197745006829</v>
+        <v>2.228060839067492</v>
       </c>
       <c r="AU27" t="n">
-        <v>3.485425712140754</v>
+        <v>3.692233986323077</v>
       </c>
       <c r="AV27" t="n">
-        <v>2.521008640587302</v>
+        <v>1.800672422927059</v>
       </c>
       <c r="AW27" t="n">
-        <v>2.026688347225652</v>
+        <v>6.238139752915527</v>
       </c>
       <c r="AX27" t="n">
-        <v>3.191294421494561</v>
+        <v>1.633958501569432</v>
       </c>
     </row>
     <row r="28">
@@ -4645,148 +4645,148 @@
         <v>5</v>
       </c>
       <c r="C28" t="n">
-        <v>12.49714535207974</v>
+        <v>2.76020500617299</v>
       </c>
       <c r="D28" t="n">
-        <v>7.273839464966668</v>
+        <v>8.330279832260633</v>
       </c>
       <c r="E28" t="n">
-        <v>11.60676733525219</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>12.1521098420312</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>174.7793810656971</v>
+        <v>68.58043734645879</v>
       </c>
       <c r="I28" t="n">
-        <v>1.879993524525666</v>
+        <v>211.6344529095789</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>7.255450911551797</v>
       </c>
       <c r="K28" t="n">
-        <v>85.81286393933377</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>68.23486564595561</v>
+        <v>101.1750593700449</v>
       </c>
       <c r="M28" t="n">
-        <v>57.93032398770714</v>
+        <v>59.67804608737484</v>
       </c>
       <c r="N28" t="n">
-        <v>19.14001373951251</v>
+        <v>86.23176135729122</v>
       </c>
       <c r="O28" t="n">
-        <v>19.24185443330703</v>
+        <v>51.90758860508397</v>
       </c>
       <c r="P28" t="n">
-        <v>45.81648906557001</v>
+        <v>110.9573387041329</v>
       </c>
       <c r="Q28" t="n">
-        <v>73.39917266278242</v>
+        <v>29.08268878214263</v>
       </c>
       <c r="R28" t="n">
-        <v>60.81603665028715</v>
+        <v>38.93580327517392</v>
       </c>
       <c r="S28" t="n">
-        <v>38.93305730884102</v>
+        <v>38.07366637891834</v>
       </c>
       <c r="T28" t="n">
-        <v>37.10370552009476</v>
+        <v>83.70735002656386</v>
       </c>
       <c r="U28" t="n">
-        <v>42.73074858489203</v>
+        <v>16.8938720893434</v>
       </c>
       <c r="V28" t="n">
-        <v>45.09210690111784</v>
+        <v>50.66706112345537</v>
       </c>
       <c r="W28" t="n">
-        <v>14.72694175934696</v>
+        <v>23.44563227930645</v>
       </c>
       <c r="X28" t="n">
-        <v>85.95514361480537</v>
+        <v>61.55684169942761</v>
       </c>
       <c r="Y28" t="n">
-        <v>91.98137360042499</v>
+        <v>60.51399202086104</v>
       </c>
       <c r="Z28" t="n">
-        <v>73.77433890508512</v>
+        <v>79.29807158194214</v>
       </c>
       <c r="AA28" t="n">
-        <v>51.50326825942994</v>
+        <v>74.36631740463453</v>
       </c>
       <c r="AB28" t="n">
-        <v>28.29242859796418</v>
+        <v>84.13249384259149</v>
       </c>
       <c r="AC28" t="n">
-        <v>54.78489318729836</v>
+        <v>32.18369185964163</v>
       </c>
       <c r="AD28" t="n">
-        <v>189.71781181192</v>
+        <v>50.24204245583687</v>
       </c>
       <c r="AE28" t="n">
-        <v>14.94410247430744</v>
+        <v>64.47079389256426</v>
       </c>
       <c r="AF28" t="n">
-        <v>94.51842730381354</v>
+        <v>64.45657786205295</v>
       </c>
       <c r="AG28" t="n">
-        <v>125.2962354782877</v>
+        <v>118.7459364169657</v>
       </c>
       <c r="AH28" t="n">
-        <v>56.85936635510413</v>
+        <v>115.7687341492793</v>
       </c>
       <c r="AI28" t="n">
-        <v>20.36086656365958</v>
+        <v>46.00771084545186</v>
       </c>
       <c r="AJ28" t="n">
-        <v>22.99769722077628</v>
+        <v>15.57030042174752</v>
       </c>
       <c r="AK28" t="n">
-        <v>43.6705471171414</v>
+        <v>53.82030217387825</v>
       </c>
       <c r="AL28" t="n">
-        <v>35.48070780373816</v>
+        <v>37.89081577664204</v>
       </c>
       <c r="AM28" t="n">
-        <v>14.60699928903965</v>
+        <v>17.11774489191244</v>
       </c>
       <c r="AN28" t="n">
-        <v>36.703144266665</v>
+        <v>25.55256012304175</v>
       </c>
       <c r="AO28" t="n">
-        <v>15.77867244672755</v>
+        <v>10.80803399264425</v>
       </c>
       <c r="AP28" t="n">
-        <v>37.89648537596898</v>
+        <v>26.69475965102329</v>
       </c>
       <c r="AQ28" t="n">
-        <v>27.0071127125322</v>
+        <v>13.40607359838778</v>
       </c>
       <c r="AR28" t="n">
-        <v>10.93955553048225</v>
+        <v>13.97021064068615</v>
       </c>
       <c r="AS28" t="n">
-        <v>9.710777070315361</v>
+        <v>11.75943006938588</v>
       </c>
       <c r="AT28" t="n">
-        <v>13.77437501035955</v>
+        <v>5.445069298531486</v>
       </c>
       <c r="AU28" t="n">
-        <v>2.762028170019587</v>
+        <v>7.816119262209162</v>
       </c>
       <c r="AV28" t="n">
-        <v>10.10877627301654</v>
+        <v>11.68432899689723</v>
       </c>
       <c r="AW28" t="n">
-        <v>10.76416627040595</v>
+        <v>7.050127069039475</v>
       </c>
       <c r="AX28" t="n">
-        <v>11.11257894766573</v>
+        <v>16.75504155782512</v>
       </c>
     </row>
     <row r="29">
@@ -4800,145 +4800,145 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>19.35819066403513</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1.949986918495075</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.3594764163642403</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.387540114557702</v>
+        <v>14.76409109138861</v>
       </c>
       <c r="H29" t="n">
-        <v>30.19576099624583</v>
+        <v>1.48521789093979</v>
       </c>
       <c r="I29" t="n">
-        <v>24.37668759067189</v>
+        <v>25.84626301204722</v>
       </c>
       <c r="J29" t="n">
-        <v>42.37051080618975</v>
+        <v>81.78179589861138</v>
       </c>
       <c r="K29" t="n">
-        <v>155.0487587989403</v>
+        <v>70.42433835726948</v>
       </c>
       <c r="L29" t="n">
-        <v>45.04398313315111</v>
+        <v>90.48693964628656</v>
       </c>
       <c r="M29" t="n">
-        <v>45.63898356656707</v>
+        <v>45.40485102743015</v>
       </c>
       <c r="N29" t="n">
-        <v>51.74907981902977</v>
+        <v>31.81595228659628</v>
       </c>
       <c r="O29" t="n">
-        <v>102.9230694471873</v>
+        <v>23.24464768825933</v>
       </c>
       <c r="P29" t="n">
-        <v>21.72535365521001</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>117.196375125462</v>
+        <v>101.2404428100171</v>
       </c>
       <c r="R29" t="n">
-        <v>107.6508913065288</v>
+        <v>32.85672257174541</v>
       </c>
       <c r="S29" t="n">
-        <v>23.17724498952607</v>
+        <v>46.09587069273405</v>
       </c>
       <c r="T29" t="n">
-        <v>33.30642623167889</v>
+        <v>14.30782344800786</v>
       </c>
       <c r="U29" t="n">
-        <v>40.01836942057402</v>
+        <v>57.53508272522792</v>
       </c>
       <c r="V29" t="n">
-        <v>67.44397128633712</v>
+        <v>91.06077701884715</v>
       </c>
       <c r="W29" t="n">
-        <v>68.54077217218716</v>
+        <v>36.86678445537492</v>
       </c>
       <c r="X29" t="n">
-        <v>37.26576318467698</v>
+        <v>100.1585259831531</v>
       </c>
       <c r="Y29" t="n">
-        <v>55.42673488823262</v>
+        <v>26.77836970930615</v>
       </c>
       <c r="Z29" t="n">
-        <v>51.01437339813214</v>
+        <v>0</v>
       </c>
       <c r="AA29" t="n">
-        <v>40.38077756231561</v>
+        <v>16.75951350415815</v>
       </c>
       <c r="AB29" t="n">
-        <v>29.69249480025533</v>
+        <v>40.01769403873154</v>
       </c>
       <c r="AC29" t="n">
-        <v>12.11911921103069</v>
+        <v>36.81133112954834</v>
       </c>
       <c r="AD29" t="n">
-        <v>0</v>
+        <v>14.90344125059241</v>
       </c>
       <c r="AE29" t="n">
-        <v>3.792051136616006</v>
+        <v>60.7771081643295</v>
       </c>
       <c r="AF29" t="n">
-        <v>13.3514739100408</v>
+        <v>51.02785117325269</v>
       </c>
       <c r="AG29" t="n">
-        <v>16.88653144359452</v>
+        <v>57.86848262126219</v>
       </c>
       <c r="AH29" t="n">
-        <v>18.94914618340699</v>
+        <v>7.167604737047963</v>
       </c>
       <c r="AI29" t="n">
-        <v>44.81100008226531</v>
+        <v>6.859716722376815</v>
       </c>
       <c r="AJ29" t="n">
-        <v>0</v>
+        <v>39.49991086594471</v>
       </c>
       <c r="AK29" t="n">
-        <v>36.73994405123516</v>
+        <v>37.85707541851423</v>
       </c>
       <c r="AL29" t="n">
-        <v>17.0437381889047</v>
+        <v>109.3445468847392</v>
       </c>
       <c r="AM29" t="n">
-        <v>45.12330808970665</v>
+        <v>26.04898433013967</v>
       </c>
       <c r="AN29" t="n">
-        <v>45.43763585110695</v>
+        <v>32.97677862460049</v>
       </c>
       <c r="AO29" t="n">
-        <v>10.09208489908428</v>
+        <v>30.78475281818087</v>
       </c>
       <c r="AP29" t="n">
-        <v>20.99328165655695</v>
+        <v>32.37712972278577</v>
       </c>
       <c r="AQ29" t="n">
-        <v>34.80788137579489</v>
+        <v>33.88712865076234</v>
       </c>
       <c r="AR29" t="n">
-        <v>5.072841721682038</v>
+        <v>23.80265667623732</v>
       </c>
       <c r="AS29" t="n">
-        <v>23.43400334101369</v>
+        <v>17.28046622090118</v>
       </c>
       <c r="AT29" t="n">
-        <v>18.4022099545459</v>
+        <v>0.0786242849084946</v>
       </c>
       <c r="AU29" t="n">
-        <v>37.11047436033071</v>
+        <v>13.89073711690503</v>
       </c>
       <c r="AV29" t="n">
-        <v>21.49067173473395</v>
+        <v>13.40296095246586</v>
       </c>
       <c r="AW29" t="n">
-        <v>28.51132931548511</v>
+        <v>21.25996353682774</v>
       </c>
       <c r="AX29" t="n">
-        <v>46.97545069629384</v>
+        <v>40.98487397628834</v>
       </c>
     </row>
     <row r="30">
@@ -4949,148 +4949,148 @@
         <v>5</v>
       </c>
       <c r="C30" t="n">
-        <v>1.971965777299013</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>3.383644610974961</v>
+        <v>6.193344525794615</v>
       </c>
       <c r="E30" t="n">
-        <v>4.482386896172363</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>1.508128339182072</v>
+        <v>6.36614452476171</v>
       </c>
       <c r="G30" t="n">
-        <v>4.189342555848264</v>
+        <v>11.25349919541802</v>
       </c>
       <c r="H30" t="n">
-        <v>13.80525164637907</v>
+        <v>0.2817925131728503</v>
       </c>
       <c r="I30" t="n">
-        <v>5.769208511654271</v>
+        <v>15.1306104810413</v>
       </c>
       <c r="J30" t="n">
-        <v>62.78188839578603</v>
+        <v>4.089535181328511</v>
       </c>
       <c r="K30" t="n">
-        <v>3.742804392063972</v>
+        <v>14.74110834784424</v>
       </c>
       <c r="L30" t="n">
-        <v>9.742247581393213</v>
+        <v>12.71847476282939</v>
       </c>
       <c r="M30" t="n">
-        <v>33.75795211696858</v>
+        <v>36.3551193671128</v>
       </c>
       <c r="N30" t="n">
-        <v>101.2718789201316</v>
+        <v>45.9017317033984</v>
       </c>
       <c r="O30" t="n">
-        <v>24.29463809365112</v>
+        <v>14.09325647019252</v>
       </c>
       <c r="P30" t="n">
-        <v>20.31206625038244</v>
+        <v>23.20833249055189</v>
       </c>
       <c r="Q30" t="n">
-        <v>13.03173140455088</v>
+        <v>34.15643224916026</v>
       </c>
       <c r="R30" t="n">
-        <v>33.01439606690909</v>
+        <v>3.886360243395518</v>
       </c>
       <c r="S30" t="n">
-        <v>53.79045706642162</v>
+        <v>29.99715221318418</v>
       </c>
       <c r="T30" t="n">
-        <v>13.32628052642568</v>
+        <v>13.03133721646746</v>
       </c>
       <c r="U30" t="n">
-        <v>54.11708061457075</v>
+        <v>26.96054413100286</v>
       </c>
       <c r="V30" t="n">
-        <v>18.46277938473287</v>
+        <v>11.29809859348582</v>
       </c>
       <c r="W30" t="n">
-        <v>12.38769602857399</v>
+        <v>17.36566622073668</v>
       </c>
       <c r="X30" t="n">
-        <v>80.70113226254489</v>
+        <v>16.66047682819839</v>
       </c>
       <c r="Y30" t="n">
-        <v>16.35853047437498</v>
+        <v>87.16770520549123</v>
       </c>
       <c r="Z30" t="n">
-        <v>17.66166182985482</v>
+        <v>13.55086597920006</v>
       </c>
       <c r="AA30" t="n">
-        <v>31.19959347294025</v>
+        <v>32.69241698315285</v>
       </c>
       <c r="AB30" t="n">
-        <v>13.85176740446263</v>
+        <v>13.1216202999776</v>
       </c>
       <c r="AC30" t="n">
-        <v>12.12653962116588</v>
+        <v>13.65499609192246</v>
       </c>
       <c r="AD30" t="n">
-        <v>12.32851806837844</v>
+        <v>45.52817687975063</v>
       </c>
       <c r="AE30" t="n">
-        <v>12.91783355456021</v>
+        <v>10.96979517705032</v>
       </c>
       <c r="AF30" t="n">
-        <v>8.721653534868208</v>
+        <v>6.353315236862548</v>
       </c>
       <c r="AG30" t="n">
-        <v>9.057742723616986</v>
+        <v>25.12836103923012</v>
       </c>
       <c r="AH30" t="n">
-        <v>17.5565164027743</v>
+        <v>13.08737702527209</v>
       </c>
       <c r="AI30" t="n">
-        <v>3.416965686645186</v>
+        <v>11.47836192928237</v>
       </c>
       <c r="AJ30" t="n">
-        <v>17.67982945785491</v>
+        <v>20.96322992702857</v>
       </c>
       <c r="AK30" t="n">
-        <v>7.277730968671136</v>
+        <v>3.591295020338663</v>
       </c>
       <c r="AL30" t="n">
-        <v>6.52359879749502</v>
+        <v>10.31294867413855</v>
       </c>
       <c r="AM30" t="n">
-        <v>12.18775363964388</v>
+        <v>8.080469354895063</v>
       </c>
       <c r="AN30" t="n">
-        <v>6.779516684662124</v>
+        <v>5.185225565029684</v>
       </c>
       <c r="AO30" t="n">
-        <v>4.300254967320804</v>
+        <v>2.275617913227071</v>
       </c>
       <c r="AP30" t="n">
-        <v>2.59863173285497</v>
+        <v>2.346244994915431</v>
       </c>
       <c r="AQ30" t="n">
-        <v>4.551740379011469</v>
+        <v>4.017790694257688</v>
       </c>
       <c r="AR30" t="n">
-        <v>2.38991575683225</v>
+        <v>3.417240562076534</v>
       </c>
       <c r="AS30" t="n">
-        <v>3.91332508754465</v>
+        <v>2.969140912530402</v>
       </c>
       <c r="AT30" t="n">
-        <v>5.039466390844979</v>
+        <v>2.558185602303534</v>
       </c>
       <c r="AU30" t="n">
-        <v>1.408151237227329</v>
+        <v>3.327066114662952</v>
       </c>
       <c r="AV30" t="n">
-        <v>5.057191122068637</v>
+        <v>3.790503479224721</v>
       </c>
       <c r="AW30" t="n">
-        <v>3.940312563590086</v>
+        <v>4.1929587703689</v>
       </c>
       <c r="AX30" t="n">
-        <v>1.272440965118397</v>
+        <v>1.029006784070807</v>
       </c>
     </row>
     <row r="31">
@@ -5101,148 +5101,148 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>9.7905952465801</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>25.74863303005081</v>
+        <v>7.487587476545203</v>
       </c>
       <c r="E31" t="n">
-        <v>24.14186073013811</v>
+        <v>10.45919402398818</v>
       </c>
       <c r="F31" t="n">
-        <v>1.002403221396248</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>31.95114822978749</v>
+        <v>10.80764685955957</v>
       </c>
       <c r="H31" t="n">
-        <v>19.11008352423921</v>
+        <v>25.82863791523116</v>
       </c>
       <c r="I31" t="n">
-        <v>20.96336089786261</v>
+        <v>45.58250537080857</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>7.030379471244821</v>
       </c>
       <c r="K31" t="n">
-        <v>47.73441026001035</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>2.553698957518531</v>
+        <v>70.04639790579907</v>
       </c>
       <c r="M31" t="n">
-        <v>12.19215809774489</v>
+        <v>33.41613876483304</v>
       </c>
       <c r="N31" t="n">
-        <v>12.09117850782319</v>
+        <v>77.39364038493504</v>
       </c>
       <c r="O31" t="n">
-        <v>44.98606356379979</v>
+        <v>112.59154635681</v>
       </c>
       <c r="P31" t="n">
-        <v>33.2556988033546</v>
+        <v>1.61599394549398</v>
       </c>
       <c r="Q31" t="n">
-        <v>40.24378611475851</v>
+        <v>100.3958061210979</v>
       </c>
       <c r="R31" t="n">
-        <v>23.48045420859757</v>
+        <v>38.16726390191252</v>
       </c>
       <c r="S31" t="n">
-        <v>33.99458650676455</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>23.67258929595536</v>
+        <v>84.28671897339362</v>
       </c>
       <c r="U31" t="n">
-        <v>30.06129179520734</v>
+        <v>22.63666221760283</v>
       </c>
       <c r="V31" t="n">
-        <v>55.11702468880282</v>
+        <v>17.99883834887064</v>
       </c>
       <c r="W31" t="n">
-        <v>16.89157144291897</v>
+        <v>10.22117972461951</v>
       </c>
       <c r="X31" t="n">
-        <v>20.18513140392396</v>
+        <v>88.73734409812903</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>89.08185833294527</v>
       </c>
       <c r="Z31" t="n">
-        <v>5.01480860646389</v>
+        <v>25.94648220898966</v>
       </c>
       <c r="AA31" t="n">
         <v>0</v>
       </c>
       <c r="AB31" t="n">
-        <v>7.769681695707582</v>
+        <v>14.41193818528651</v>
       </c>
       <c r="AC31" t="n">
-        <v>5.371755952272601</v>
+        <v>6.522748251333949</v>
       </c>
       <c r="AD31" t="n">
-        <v>4.341464987641871</v>
+        <v>25.43757505768107</v>
       </c>
       <c r="AE31" t="n">
-        <v>7.244093390360038</v>
+        <v>0.4803421280427458</v>
       </c>
       <c r="AF31" t="n">
-        <v>16.82306438702698</v>
+        <v>2.227649075196708</v>
       </c>
       <c r="AG31" t="n">
-        <v>9.279398161108565</v>
+        <v>4.37085782100419</v>
       </c>
       <c r="AH31" t="n">
-        <v>14.46098772694654</v>
+        <v>22.04551878241848</v>
       </c>
       <c r="AI31" t="n">
-        <v>15.6692896732035</v>
+        <v>0</v>
       </c>
       <c r="AJ31" t="n">
-        <v>10.83230648630724</v>
+        <v>1.961659808363392</v>
       </c>
       <c r="AK31" t="n">
-        <v>6.792570029597152</v>
+        <v>0</v>
       </c>
       <c r="AL31" t="n">
-        <v>34.36739394784523</v>
+        <v>2.907677186766364</v>
       </c>
       <c r="AM31" t="n">
-        <v>2.365386610384076</v>
+        <v>4.435605336241839</v>
       </c>
       <c r="AN31" t="n">
-        <v>7.965337377264451</v>
+        <v>2.574177160182576</v>
       </c>
       <c r="AO31" t="n">
-        <v>1.028577123492922</v>
+        <v>3.305208729896156</v>
       </c>
       <c r="AP31" t="n">
-        <v>16.23655091726404</v>
+        <v>3.886252795859454</v>
       </c>
       <c r="AQ31" t="n">
-        <v>5.542392813690196</v>
+        <v>2.350165932229387</v>
       </c>
       <c r="AR31" t="n">
-        <v>3.247339688611421</v>
+        <v>13.89122550808233</v>
       </c>
       <c r="AS31" t="n">
-        <v>7.335659736307203</v>
+        <v>12.96232409174445</v>
       </c>
       <c r="AT31" t="n">
-        <v>0</v>
+        <v>4.195630433849793</v>
       </c>
       <c r="AU31" t="n">
-        <v>10.95146253931025</v>
+        <v>0</v>
       </c>
       <c r="AV31" t="n">
-        <v>4.725148178905191</v>
+        <v>4.578732270871378</v>
       </c>
       <c r="AW31" t="n">
-        <v>3.183580538299059</v>
+        <v>10.6334702391275</v>
       </c>
       <c r="AX31" t="n">
-        <v>6.189506078911618</v>
+        <v>2.480388277859327</v>
       </c>
     </row>
   </sheetData>
